--- a/datasource/output.xlsx
+++ b/datasource/output.xlsx
@@ -196,9 +196,6 @@
     <t xml:space="preserve">9251--30            </t>
   </si>
   <si>
-    <t xml:space="preserve">9692--6             </t>
-  </si>
-  <si>
     <t>[4600, 6015, 8241, 8343, 8354, 8357, 9251, 9692]</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t xml:space="preserve">8368--18            </t>
   </si>
   <si>
-    <t xml:space="preserve">9692--13            </t>
-  </si>
-  <si>
     <t>[1230, 2416, 3210, 4660, 6072, 7110, 8368, 9251, 9692]</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t xml:space="preserve">3310--11            </t>
   </si>
   <si>
-    <t xml:space="preserve">9251--19            </t>
-  </si>
-  <si>
     <t>[1230, 2610, 3310, 4020, 4660, 6072, 7110, 9251]</t>
   </si>
   <si>
@@ -478,18 +469,12 @@
     <t>Martinez Mora, Bianca</t>
   </si>
   <si>
-    <t xml:space="preserve">9692--4             </t>
-  </si>
-  <si>
     <t>[1230, 2414, 3210, 6072, 7110, 8368, 9251, 9692]</t>
   </si>
   <si>
     <t xml:space="preserve">Martinez-Nieto, Luz </t>
   </si>
   <si>
-    <t xml:space="preserve">2510--4             </t>
-  </si>
-  <si>
     <t>[1230, 2510, 3210, 4120, 6072, 7110, 9251]</t>
   </si>
   <si>
@@ -580,18 +565,12 @@
     <t xml:space="preserve">3050--1             </t>
   </si>
   <si>
-    <t xml:space="preserve">2610--7             </t>
-  </si>
-  <si>
     <t>[1230, 2610, 3050, 4220, 6072, 9251]</t>
   </si>
   <si>
     <t xml:space="preserve">Quintero, Andreina  </t>
   </si>
   <si>
-    <t xml:space="preserve">9692--3             </t>
-  </si>
-  <si>
     <t>[1230, 2414, 3210, 4600-Z, 6072, 7110, 8368, 9251, 9692]</t>
   </si>
   <si>
@@ -661,9 +640,6 @@
     <t xml:space="preserve">Ruiz, Maria         </t>
   </si>
   <si>
-    <t xml:space="preserve">5638--2             </t>
-  </si>
-  <si>
     <t>[1260, 2510, 3340, 5638, 7110, 9090, 9251]</t>
   </si>
   <si>
@@ -685,9 +661,6 @@
     <t>Urias-Preciado, Paola</t>
   </si>
   <si>
-    <t xml:space="preserve">2610--10            </t>
-  </si>
-  <si>
     <t>[1230, 2610, 3310, 4120, 6072, 7110, 9251]</t>
   </si>
   <si>
@@ -2396,6 +2369,33 @@
   </si>
   <si>
     <t xml:space="preserve">557 - 9251--33      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9692--7             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8368--20            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9692--2             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3340--2             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2610--8             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9692--5             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9692--11            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5638--1             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2610--9             </t>
   </si>
 </sst>
 </file>
@@ -2767,7 +2767,7 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2849,7 +2849,7 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
@@ -2863,7 +2863,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -2895,7 +2895,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -2913,7 +2913,7 @@
         <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -2933,7 +2933,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -2974,7 +2974,7 @@
         <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
@@ -2991,7 +2991,7 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -3041,13 +3041,13 @@
         <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="s">
         <v>58</v>
-      </c>
-      <c r="M8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3055,7 +3055,7 @@
         <v>419166</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
@@ -3067,7 +3067,7 @@
         <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
         <v>41</v>
@@ -3076,7 +3076,7 @@
         <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
         <v>49</v>
@@ -3087,16 +3087,16 @@
         <v>309177</v>
       </c>
       <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -3108,10 +3108,10 @@
         <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3119,10 +3119,10 @@
         <v>290532</v>
       </c>
       <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -3131,25 +3131,25 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
       </c>
       <c r="I11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>783</v>
+      </c>
+      <c r="M11" t="s">
         <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3157,16 +3157,16 @@
         <v>399319</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -3175,13 +3175,13 @@
         <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3189,10 +3189,10 @@
         <v>379497</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
@@ -3201,7 +3201,7 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
         <v>35</v>
@@ -3210,10 +3210,10 @@
         <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3221,34 +3221,34 @@
         <v>3900144</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3256,31 +3256,31 @@
         <v>3000238</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
         <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3288,34 +3288,34 @@
         <v>399018</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
         <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3323,10 +3323,10 @@
         <v>359404</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
@@ -3335,19 +3335,19 @@
         <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
         <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -3355,34 +3355,34 @@
         <v>50002</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
         <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3390,13 +3390,13 @@
         <v>479088</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
         <v>98</v>
-      </c>
-      <c r="E19" t="s">
-        <v>101</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -3411,10 +3411,10 @@
         <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -3422,16 +3422,16 @@
         <v>379133</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -3440,13 +3440,13 @@
         <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s">
         <v>48</v>
       </c>
       <c r="M20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -3454,7 +3454,7 @@
         <v>419461</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -3466,22 +3466,22 @@
         <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>784</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="L21" t="s">
-        <v>106</v>
+        <v>785</v>
       </c>
       <c r="M21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -3489,10 +3489,10 @@
         <v>399329</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -3501,22 +3501,22 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3524,7 +3524,7 @@
         <v>399342</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -3533,22 +3533,22 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J23" t="s">
         <v>43</v>
       </c>
       <c r="M23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3556,16 +3556,16 @@
         <v>290390</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
@@ -3577,10 +3577,10 @@
         <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3588,16 +3588,16 @@
         <v>290377</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
@@ -3606,13 +3606,13 @@
         <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -3620,16 +3620,16 @@
         <v>290698</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
@@ -3641,10 +3641,10 @@
         <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -3652,31 +3652,31 @@
         <v>399331</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>786</v>
       </c>
       <c r="H27" t="s">
         <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -3684,10 +3684,10 @@
         <v>419117</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
         <v>24</v>
@@ -3696,19 +3696,19 @@
         <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I28" t="s">
         <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -3716,10 +3716,10 @@
         <v>399213</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -3737,7 +3737,7 @@
         <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M29" t="s">
         <v>37</v>
@@ -3748,7 +3748,7 @@
         <v>359260</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -3757,10 +3757,10 @@
         <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
         <v>35</v>
@@ -3769,10 +3769,10 @@
         <v>36</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -3780,10 +3780,10 @@
         <v>149463</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -3798,7 +3798,7 @@
         <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
         <v>39</v>
@@ -3812,16 +3812,16 @@
         <v>379146</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -3833,7 +3833,7 @@
         <v>36</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M32" t="s">
         <v>37</v>
@@ -3844,16 +3844,16 @@
         <v>369270</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -3868,7 +3868,7 @@
         <v>39</v>
       </c>
       <c r="M33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3876,31 +3876,31 @@
         <v>449277</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
         <v>36</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -3908,31 +3908,31 @@
         <v>479049</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J35" t="s">
         <v>29</v>
       </c>
       <c r="M35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -3940,31 +3940,31 @@
         <v>4400630</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
         <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I36" t="s">
         <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -3972,31 +3972,31 @@
         <v>280356</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -4004,34 +4004,34 @@
         <v>478858</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
         <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="L38" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M38" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -4039,31 +4039,31 @@
         <v>290396</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I39" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M39" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -4071,16 +4071,16 @@
         <v>290389</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
@@ -4092,7 +4092,7 @@
         <v>36</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M40" t="s">
         <v>49</v>
@@ -4103,16 +4103,16 @@
         <v>381284</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -4121,7 +4121,7 @@
         <v>41</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="J41" t="s">
         <v>57</v>
@@ -4135,7 +4135,7 @@
         <v>419001</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D42" t="s">
         <v>32</v>
@@ -4144,25 +4144,25 @@
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I42" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="J42" t="s">
         <v>39</v>
       </c>
       <c r="L42" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="M42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -4170,25 +4170,25 @@
         <v>379160</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
         <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I43" t="s">
         <v>36</v>
@@ -4197,7 +4197,7 @@
         <v>20</v>
       </c>
       <c r="M43" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -4205,16 +4205,16 @@
         <v>369232</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -4223,13 +4223,13 @@
         <v>41</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -4237,19 +4237,19 @@
         <v>280507</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
@@ -4261,10 +4261,10 @@
         <v>36</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -4272,31 +4272,31 @@
         <v>420261</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G46" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H46" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J46" t="s">
         <v>29</v>
       </c>
       <c r="M46" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -4304,16 +4304,16 @@
         <v>419127</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -4325,7 +4325,7 @@
         <v>36</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M47" t="s">
         <v>49</v>
@@ -4336,7 +4336,7 @@
         <v>369295</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -4345,22 +4345,22 @@
         <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H48" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M48" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -4368,10 +4368,10 @@
         <v>319252</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s">
         <v>24</v>
@@ -4380,19 +4380,19 @@
         <v>25</v>
       </c>
       <c r="G49" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H49" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="I49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M49" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4400,19 +4400,19 @@
         <v>290400</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
@@ -4424,7 +4424,7 @@
         <v>48</v>
       </c>
       <c r="M50" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4432,16 +4432,16 @@
         <v>2901722</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
         <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -4453,10 +4453,10 @@
         <v>36</v>
       </c>
       <c r="J51" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M51" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4464,10 +4464,10 @@
         <v>479176</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E52" t="s">
         <v>24</v>
@@ -4475,8 +4475,8 @@
       <c r="F52" t="s">
         <v>34</v>
       </c>
-      <c r="G52" t="s">
-        <v>186</v>
+      <c r="H52" t="s">
+        <v>787</v>
       </c>
       <c r="I52" t="s">
         <v>42</v>
@@ -4485,7 +4485,7 @@
         <v>29</v>
       </c>
       <c r="M52" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4493,37 +4493,37 @@
         <v>381342</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
         <v>32</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="I53" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="J53" t="s">
         <v>29</v>
       </c>
       <c r="L53" t="s">
-        <v>189</v>
+        <v>788</v>
       </c>
       <c r="M53" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4531,16 +4531,16 @@
         <v>419206</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -4552,7 +4552,7 @@
         <v>36</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M54" t="s">
         <v>49</v>
@@ -4563,31 +4563,31 @@
         <v>478865</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
         <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H55" t="s">
         <v>41</v>
       </c>
       <c r="I55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J55" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M55" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4595,16 +4595,16 @@
         <v>419141</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
@@ -4613,13 +4613,13 @@
         <v>41</v>
       </c>
       <c r="I56" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J56" t="s">
         <v>29</v>
       </c>
       <c r="M56" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4627,28 +4627,28 @@
         <v>290413</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J57" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M57" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4656,31 +4656,31 @@
         <v>478918</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D58" t="s">
         <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F58" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="J58" t="s">
         <v>20</v>
       </c>
       <c r="M58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -4688,7 +4688,7 @@
         <v>349040</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
         <v>51</v>
@@ -4706,13 +4706,13 @@
         <v>55</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="L59" t="s">
-        <v>202</v>
+        <v>789</v>
       </c>
       <c r="M59" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4720,7 +4720,7 @@
         <v>158832</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
         <v>32</v>
@@ -4729,7 +4729,7 @@
         <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
@@ -4741,10 +4741,10 @@
         <v>36</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4752,16 +4752,16 @@
         <v>378941</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
         <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G61" t="s">
         <v>17</v>
@@ -4773,10 +4773,10 @@
         <v>36</v>
       </c>
       <c r="J61" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4784,31 +4784,31 @@
         <v>478867</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s">
         <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F62" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G62" t="s">
         <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I62" t="s">
         <v>36</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M62" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4816,31 +4816,31 @@
         <v>280375</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="I63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J63" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M63" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -4848,7 +4848,7 @@
         <v>420317</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
         <v>210</v>
@@ -4857,22 +4857,22 @@
         <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H64" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I64" t="s">
         <v>36</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M64" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4880,31 +4880,31 @@
         <v>319266</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G65" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H65" t="s">
         <v>41</v>
       </c>
       <c r="I65" t="s">
-        <v>213</v>
+        <v>790</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M65" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4912,31 +4912,31 @@
         <v>280792</v>
       </c>
       <c r="B66" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
         <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
         <v>36</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M66" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4944,31 +4944,31 @@
         <v>280381</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
       </c>
       <c r="E67" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G67" t="s">
         <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I67" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="J67" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4976,10 +4976,10 @@
         <v>319274</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
         <v>24</v>
@@ -4988,19 +4988,19 @@
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H68" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="I68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M68" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -5008,7 +5008,7 @@
         <v>290426</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -5017,22 +5017,22 @@
         <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H69" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I69" t="s">
-        <v>221</v>
+        <v>791</v>
       </c>
       <c r="J69" t="s">
         <v>57</v>
       </c>
       <c r="M69" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -5040,31 +5040,31 @@
         <v>309334</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E70" t="s">
         <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G70" t="s">
         <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I70" t="s">
         <v>36</v>
       </c>
       <c r="J70" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M70" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -5072,16 +5072,16 @@
         <v>420246</v>
       </c>
       <c r="B71" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G71" t="s">
         <v>17</v>
@@ -5093,10 +5093,10 @@
         <v>42</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -5104,7 +5104,7 @@
         <v>319426</v>
       </c>
       <c r="B72" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
@@ -5113,7 +5113,7 @@
         <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G72" t="s">
         <v>26</v>
@@ -5122,16 +5122,16 @@
         <v>41</v>
       </c>
       <c r="I72" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L72" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="M72" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -5139,28 +5139,28 @@
         <v>419151</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G73" t="s">
         <v>17</v>
       </c>
       <c r="H73" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M73" t="s">
         <v>37</v>
@@ -5171,7 +5171,7 @@
         <v>4700409</v>
       </c>
       <c r="B74" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -5180,7 +5180,7 @@
         <v>46</v>
       </c>
       <c r="F74" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G74" t="s">
         <v>17</v>
@@ -5192,10 +5192,10 @@
         <v>36</v>
       </c>
       <c r="J74" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -5203,34 +5203,34 @@
         <v>3900135</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F75" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G75" t="s">
         <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I75" t="s">
         <v>28</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M75" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -5238,31 +5238,31 @@
         <v>290350</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
         <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G76" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H76" t="s">
         <v>27</v>
       </c>
       <c r="I76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M76" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5277,10 +5277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:UL51"/>
+  <dimension ref="A1:UL50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5441,1675 +5441,1675 @@
   <sheetData>
     <row r="1" spans="1:558">
       <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" t="s">
         <v>235</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>236</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>237</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>238</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>239</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>241</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>242</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>243</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>244</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>245</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>246</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>247</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>248</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>249</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>250</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>251</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>252</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>253</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>254</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>255</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>256</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>257</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>258</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>259</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>260</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>261</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" t="s">
         <v>262</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>263</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AN1" t="s">
         <v>264</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AO1" t="s">
         <v>265</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AP1" t="s">
         <v>266</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AQ1" t="s">
         <v>267</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AR1" t="s">
         <v>268</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AS1" t="s">
         <v>269</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AT1" t="s">
         <v>270</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AU1" t="s">
         <v>271</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AV1" t="s">
         <v>272</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AW1" t="s">
         <v>273</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AX1" t="s">
         <v>274</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AY1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AZ1" t="s">
         <v>276</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BA1" t="s">
         <v>277</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BB1" t="s">
         <v>278</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BC1" t="s">
         <v>279</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BD1" t="s">
         <v>280</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BE1" t="s">
         <v>281</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BF1" t="s">
         <v>282</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BG1" t="s">
         <v>283</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BH1" t="s">
         <v>284</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BI1" t="s">
         <v>285</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BJ1" t="s">
         <v>286</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BK1" t="s">
         <v>287</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BL1" t="s">
         <v>288</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BM1" t="s">
         <v>289</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BN1" t="s">
         <v>290</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BO1" t="s">
         <v>291</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BP1" t="s">
         <v>292</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BQ1" t="s">
         <v>293</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BR1" t="s">
         <v>294</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BS1" t="s">
         <v>295</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BT1" t="s">
         <v>296</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BU1" t="s">
         <v>297</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BV1" t="s">
         <v>298</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BW1" t="s">
         <v>299</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BX1" t="s">
         <v>300</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BY1" t="s">
         <v>301</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BZ1" t="s">
         <v>302</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="CA1" t="s">
         <v>303</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CB1" t="s">
         <v>304</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CC1" t="s">
         <v>305</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CD1" t="s">
         <v>306</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CE1" t="s">
         <v>307</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CF1" t="s">
         <v>308</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CG1" t="s">
         <v>309</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CH1" t="s">
         <v>310</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CI1" t="s">
         <v>311</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CJ1" t="s">
         <v>312</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CK1" t="s">
         <v>313</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CL1" t="s">
         <v>314</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CM1" t="s">
         <v>315</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CN1" t="s">
         <v>316</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CO1" t="s">
         <v>317</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CP1" t="s">
         <v>318</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CQ1" t="s">
         <v>319</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CR1" t="s">
         <v>320</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CS1" t="s">
         <v>321</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CT1" t="s">
         <v>322</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CU1" t="s">
         <v>323</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CV1" t="s">
         <v>324</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CW1" t="s">
         <v>325</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CX1" t="s">
         <v>326</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CY1" t="s">
         <v>327</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CZ1" t="s">
         <v>328</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="DA1" t="s">
         <v>329</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="DB1" t="s">
         <v>330</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="DC1" t="s">
         <v>331</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DD1" t="s">
         <v>332</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="DE1" t="s">
         <v>333</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DF1" t="s">
         <v>334</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DG1" t="s">
         <v>335</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DH1" t="s">
         <v>336</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DI1" t="s">
         <v>337</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DJ1" t="s">
         <v>338</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DK1" t="s">
         <v>339</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DL1" t="s">
         <v>340</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DM1" t="s">
         <v>341</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DN1" t="s">
         <v>342</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DO1" t="s">
         <v>343</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DP1" t="s">
         <v>344</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DQ1" t="s">
         <v>345</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DR1" t="s">
         <v>346</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DS1" t="s">
         <v>347</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DT1" t="s">
         <v>348</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DU1" t="s">
         <v>349</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DV1" t="s">
         <v>350</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DW1" t="s">
         <v>351</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DX1" t="s">
         <v>352</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DY1" t="s">
         <v>353</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DZ1" t="s">
         <v>354</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="EA1" t="s">
         <v>355</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="EB1" t="s">
         <v>356</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="EC1" t="s">
         <v>357</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="ED1" t="s">
         <v>358</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="EE1" t="s">
         <v>359</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="EF1" t="s">
         <v>360</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="EG1" t="s">
         <v>361</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EH1" t="s">
         <v>362</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EI1" t="s">
         <v>363</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EJ1" t="s">
         <v>364</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EK1" t="s">
         <v>365</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EL1" t="s">
         <v>366</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EM1" t="s">
         <v>367</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EN1" t="s">
         <v>368</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EO1" t="s">
         <v>369</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EP1" t="s">
         <v>370</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EQ1" t="s">
         <v>371</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="ER1" t="s">
         <v>372</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="ES1" t="s">
         <v>373</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="ET1" t="s">
         <v>374</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EU1" t="s">
         <v>375</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EV1" t="s">
         <v>376</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EW1" t="s">
         <v>377</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EX1" t="s">
         <v>378</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EY1" t="s">
         <v>379</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="EZ1" t="s">
         <v>380</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="FA1" t="s">
         <v>381</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="FB1" t="s">
         <v>382</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="FC1" t="s">
         <v>383</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="FD1" t="s">
         <v>384</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="FE1" t="s">
         <v>385</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="FF1" t="s">
         <v>386</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="FG1" t="s">
         <v>387</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FH1" t="s">
         <v>388</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FI1" t="s">
         <v>389</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FJ1" t="s">
         <v>390</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FK1" t="s">
         <v>391</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FL1" t="s">
         <v>392</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FM1" t="s">
         <v>393</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FN1" t="s">
         <v>394</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FO1" t="s">
         <v>395</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FP1" t="s">
         <v>396</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FQ1" t="s">
         <v>397</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FR1" t="s">
         <v>398</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FS1" t="s">
         <v>399</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FT1" t="s">
         <v>400</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FU1" t="s">
         <v>401</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FV1" t="s">
         <v>402</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FW1" t="s">
         <v>403</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FX1" t="s">
         <v>404</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FY1" t="s">
         <v>405</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FZ1" t="s">
         <v>406</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="GA1" t="s">
         <v>407</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="GB1" t="s">
         <v>408</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="GC1" t="s">
         <v>409</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="GD1" t="s">
         <v>410</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="GE1" t="s">
         <v>411</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="GF1" t="s">
         <v>412</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="GG1" t="s">
         <v>413</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="GH1" t="s">
         <v>414</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="GI1" t="s">
         <v>415</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GJ1" t="s">
         <v>416</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GK1" t="s">
         <v>417</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GL1" t="s">
         <v>418</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GM1" t="s">
         <v>419</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GN1" t="s">
         <v>420</v>
       </c>
-      <c r="GF1" t="s">
+      <c r="GO1" t="s">
         <v>421</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="GP1" t="s">
         <v>422</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="GQ1" t="s">
         <v>423</v>
       </c>
-      <c r="GI1" t="s">
+      <c r="GR1" t="s">
         <v>424</v>
       </c>
-      <c r="GJ1" t="s">
+      <c r="GS1" t="s">
         <v>425</v>
       </c>
-      <c r="GK1" t="s">
+      <c r="GT1" t="s">
         <v>426</v>
       </c>
-      <c r="GL1" t="s">
+      <c r="GU1" t="s">
         <v>427</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="GV1" t="s">
         <v>428</v>
       </c>
-      <c r="GN1" t="s">
+      <c r="GW1" t="s">
         <v>429</v>
       </c>
-      <c r="GO1" t="s">
+      <c r="GX1" t="s">
         <v>430</v>
       </c>
-      <c r="GP1" t="s">
+      <c r="GY1" t="s">
         <v>431</v>
       </c>
-      <c r="GQ1" t="s">
+      <c r="GZ1" t="s">
         <v>432</v>
       </c>
-      <c r="GR1" t="s">
+      <c r="HA1" t="s">
         <v>433</v>
       </c>
-      <c r="GS1" t="s">
+      <c r="HB1" t="s">
         <v>434</v>
       </c>
-      <c r="GT1" t="s">
+      <c r="HC1" t="s">
         <v>435</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="HD1" t="s">
         <v>436</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="HE1" t="s">
         <v>437</v>
       </c>
-      <c r="GW1" t="s">
+      <c r="HF1" t="s">
         <v>438</v>
       </c>
-      <c r="GX1" t="s">
+      <c r="HG1" t="s">
         <v>439</v>
       </c>
-      <c r="GY1" t="s">
+      <c r="HH1" t="s">
         <v>440</v>
       </c>
-      <c r="GZ1" t="s">
+      <c r="HI1" t="s">
         <v>441</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HJ1" t="s">
         <v>442</v>
       </c>
-      <c r="HB1" t="s">
+      <c r="HK1" t="s">
         <v>443</v>
       </c>
-      <c r="HC1" t="s">
+      <c r="HL1" t="s">
         <v>444</v>
       </c>
-      <c r="HD1" t="s">
+      <c r="HM1" t="s">
         <v>445</v>
       </c>
-      <c r="HE1" t="s">
+      <c r="HN1" t="s">
         <v>446</v>
       </c>
-      <c r="HF1" t="s">
+      <c r="HO1" t="s">
         <v>447</v>
       </c>
-      <c r="HG1" t="s">
+      <c r="HP1" t="s">
         <v>448</v>
       </c>
-      <c r="HH1" t="s">
+      <c r="HQ1" t="s">
         <v>449</v>
       </c>
-      <c r="HI1" t="s">
+      <c r="HR1" t="s">
         <v>450</v>
       </c>
-      <c r="HJ1" t="s">
+      <c r="HS1" t="s">
         <v>451</v>
       </c>
-      <c r="HK1" t="s">
+      <c r="HT1" t="s">
         <v>452</v>
       </c>
-      <c r="HL1" t="s">
+      <c r="HU1" t="s">
         <v>453</v>
       </c>
-      <c r="HM1" t="s">
+      <c r="HV1" t="s">
         <v>454</v>
       </c>
-      <c r="HN1" t="s">
+      <c r="HW1" t="s">
         <v>455</v>
       </c>
-      <c r="HO1" t="s">
+      <c r="HX1" t="s">
         <v>456</v>
       </c>
-      <c r="HP1" t="s">
+      <c r="HY1" t="s">
         <v>457</v>
       </c>
-      <c r="HQ1" t="s">
+      <c r="HZ1" t="s">
         <v>458</v>
       </c>
-      <c r="HR1" t="s">
+      <c r="IA1" t="s">
         <v>459</v>
       </c>
-      <c r="HS1" t="s">
+      <c r="IB1" t="s">
         <v>460</v>
       </c>
-      <c r="HT1" t="s">
+      <c r="IC1" t="s">
         <v>461</v>
       </c>
-      <c r="HU1" t="s">
+      <c r="ID1" t="s">
         <v>462</v>
       </c>
-      <c r="HV1" t="s">
+      <c r="IE1" t="s">
         <v>463</v>
       </c>
-      <c r="HW1" t="s">
+      <c r="IF1" t="s">
         <v>464</v>
       </c>
-      <c r="HX1" t="s">
+      <c r="IG1" t="s">
         <v>465</v>
       </c>
-      <c r="HY1" t="s">
+      <c r="IH1" t="s">
         <v>466</v>
       </c>
-      <c r="HZ1" t="s">
+      <c r="II1" t="s">
         <v>467</v>
       </c>
-      <c r="IA1" t="s">
+      <c r="IJ1" t="s">
         <v>468</v>
       </c>
-      <c r="IB1" t="s">
+      <c r="IK1" t="s">
         <v>469</v>
       </c>
-      <c r="IC1" t="s">
+      <c r="IL1" t="s">
         <v>470</v>
       </c>
-      <c r="ID1" t="s">
+      <c r="IM1" t="s">
         <v>471</v>
       </c>
-      <c r="IE1" t="s">
+      <c r="IN1" t="s">
         <v>472</v>
       </c>
-      <c r="IF1" t="s">
+      <c r="IO1" t="s">
         <v>473</v>
       </c>
-      <c r="IG1" t="s">
+      <c r="IP1" t="s">
         <v>474</v>
       </c>
-      <c r="IH1" t="s">
+      <c r="IQ1" t="s">
         <v>475</v>
       </c>
-      <c r="II1" t="s">
+      <c r="IR1" t="s">
         <v>476</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="IS1" t="s">
         <v>477</v>
       </c>
-      <c r="IK1" t="s">
+      <c r="IT1" t="s">
         <v>478</v>
       </c>
-      <c r="IL1" t="s">
+      <c r="IU1" t="s">
         <v>479</v>
       </c>
-      <c r="IM1" t="s">
+      <c r="IV1" t="s">
         <v>480</v>
       </c>
-      <c r="IN1" t="s">
+      <c r="IW1" t="s">
         <v>481</v>
       </c>
-      <c r="IO1" t="s">
+      <c r="IX1" t="s">
         <v>482</v>
       </c>
-      <c r="IP1" t="s">
+      <c r="IY1" t="s">
         <v>483</v>
       </c>
-      <c r="IQ1" t="s">
+      <c r="IZ1" t="s">
         <v>484</v>
       </c>
-      <c r="IR1" t="s">
+      <c r="JA1" t="s">
         <v>485</v>
       </c>
-      <c r="IS1" t="s">
+      <c r="JB1" t="s">
         <v>486</v>
       </c>
-      <c r="IT1" t="s">
+      <c r="JC1" t="s">
         <v>487</v>
       </c>
-      <c r="IU1" t="s">
+      <c r="JD1" t="s">
         <v>488</v>
       </c>
-      <c r="IV1" t="s">
+      <c r="JE1" t="s">
         <v>489</v>
       </c>
-      <c r="IW1" t="s">
+      <c r="JF1" t="s">
         <v>490</v>
       </c>
-      <c r="IX1" t="s">
+      <c r="JG1" t="s">
         <v>491</v>
       </c>
-      <c r="IY1" t="s">
+      <c r="JH1" t="s">
         <v>492</v>
       </c>
-      <c r="IZ1" t="s">
+      <c r="JI1" t="s">
         <v>493</v>
       </c>
-      <c r="JA1" t="s">
+      <c r="JJ1" t="s">
         <v>494</v>
       </c>
-      <c r="JB1" t="s">
+      <c r="JK1" t="s">
         <v>495</v>
       </c>
-      <c r="JC1" t="s">
+      <c r="JL1" t="s">
         <v>496</v>
       </c>
-      <c r="JD1" t="s">
+      <c r="JM1" t="s">
         <v>497</v>
       </c>
-      <c r="JE1" t="s">
+      <c r="JN1" t="s">
         <v>498</v>
       </c>
-      <c r="JF1" t="s">
+      <c r="JO1" t="s">
         <v>499</v>
       </c>
-      <c r="JG1" t="s">
+      <c r="JP1" t="s">
         <v>500</v>
       </c>
-      <c r="JH1" t="s">
+      <c r="JQ1" t="s">
         <v>501</v>
       </c>
-      <c r="JI1" t="s">
+      <c r="JR1" t="s">
         <v>502</v>
       </c>
-      <c r="JJ1" t="s">
+      <c r="JS1" t="s">
         <v>503</v>
       </c>
-      <c r="JK1" t="s">
+      <c r="JT1" t="s">
         <v>504</v>
       </c>
-      <c r="JL1" t="s">
+      <c r="JU1" t="s">
         <v>505</v>
       </c>
-      <c r="JM1" t="s">
+      <c r="JV1" t="s">
         <v>506</v>
       </c>
-      <c r="JN1" t="s">
+      <c r="JW1" t="s">
         <v>507</v>
       </c>
-      <c r="JO1" t="s">
+      <c r="JX1" t="s">
         <v>508</v>
       </c>
-      <c r="JP1" t="s">
+      <c r="JY1" t="s">
         <v>509</v>
       </c>
-      <c r="JQ1" t="s">
+      <c r="JZ1" t="s">
         <v>510</v>
       </c>
-      <c r="JR1" t="s">
+      <c r="KA1" t="s">
         <v>511</v>
       </c>
-      <c r="JS1" t="s">
+      <c r="KB1" t="s">
         <v>512</v>
       </c>
-      <c r="JT1" t="s">
+      <c r="KC1" t="s">
         <v>513</v>
       </c>
-      <c r="JU1" t="s">
+      <c r="KD1" t="s">
         <v>514</v>
       </c>
-      <c r="JV1" t="s">
+      <c r="KE1" t="s">
         <v>515</v>
       </c>
-      <c r="JW1" t="s">
+      <c r="KF1" t="s">
         <v>516</v>
       </c>
-      <c r="JX1" t="s">
+      <c r="KG1" t="s">
         <v>517</v>
       </c>
-      <c r="JY1" t="s">
+      <c r="KH1" t="s">
         <v>518</v>
       </c>
-      <c r="JZ1" t="s">
+      <c r="KI1" t="s">
         <v>519</v>
       </c>
-      <c r="KA1" t="s">
+      <c r="KJ1" t="s">
         <v>520</v>
       </c>
-      <c r="KB1" t="s">
+      <c r="KK1" t="s">
         <v>521</v>
       </c>
-      <c r="KC1" t="s">
+      <c r="KL1" t="s">
         <v>522</v>
       </c>
-      <c r="KD1" t="s">
+      <c r="KM1" t="s">
         <v>523</v>
       </c>
-      <c r="KE1" t="s">
+      <c r="KN1" t="s">
         <v>524</v>
       </c>
-      <c r="KF1" t="s">
+      <c r="KO1" t="s">
         <v>525</v>
       </c>
-      <c r="KG1" t="s">
+      <c r="KP1" t="s">
         <v>526</v>
       </c>
-      <c r="KH1" t="s">
+      <c r="KQ1" t="s">
         <v>527</v>
       </c>
-      <c r="KI1" t="s">
+      <c r="KR1" t="s">
         <v>528</v>
       </c>
-      <c r="KJ1" t="s">
+      <c r="KS1" t="s">
         <v>529</v>
       </c>
-      <c r="KK1" t="s">
+      <c r="KT1" t="s">
         <v>530</v>
       </c>
-      <c r="KL1" t="s">
+      <c r="KU1" t="s">
         <v>531</v>
       </c>
-      <c r="KM1" t="s">
+      <c r="KV1" t="s">
         <v>532</v>
       </c>
-      <c r="KN1" t="s">
+      <c r="KW1" t="s">
         <v>533</v>
       </c>
-      <c r="KO1" t="s">
+      <c r="KX1" t="s">
         <v>534</v>
       </c>
-      <c r="KP1" t="s">
+      <c r="KY1" t="s">
         <v>535</v>
       </c>
-      <c r="KQ1" t="s">
+      <c r="KZ1" t="s">
         <v>536</v>
       </c>
-      <c r="KR1" t="s">
+      <c r="LA1" t="s">
         <v>537</v>
       </c>
-      <c r="KS1" t="s">
+      <c r="LB1" t="s">
         <v>538</v>
       </c>
-      <c r="KT1" t="s">
+      <c r="LC1" t="s">
         <v>539</v>
       </c>
-      <c r="KU1" t="s">
+      <c r="LD1" t="s">
         <v>540</v>
       </c>
-      <c r="KV1" t="s">
+      <c r="LE1" t="s">
         <v>541</v>
       </c>
-      <c r="KW1" t="s">
+      <c r="LF1" t="s">
         <v>542</v>
       </c>
-      <c r="KX1" t="s">
+      <c r="LG1" t="s">
         <v>543</v>
       </c>
-      <c r="KY1" t="s">
+      <c r="LH1" t="s">
         <v>544</v>
       </c>
-      <c r="KZ1" t="s">
+      <c r="LI1" t="s">
         <v>545</v>
       </c>
-      <c r="LA1" t="s">
+      <c r="LJ1" t="s">
         <v>546</v>
       </c>
-      <c r="LB1" t="s">
+      <c r="LK1" t="s">
         <v>547</v>
       </c>
-      <c r="LC1" t="s">
+      <c r="LL1" t="s">
         <v>548</v>
       </c>
-      <c r="LD1" t="s">
+      <c r="LM1" t="s">
         <v>549</v>
       </c>
-      <c r="LE1" t="s">
+      <c r="LN1" t="s">
         <v>550</v>
       </c>
-      <c r="LF1" t="s">
+      <c r="LO1" t="s">
         <v>551</v>
       </c>
-      <c r="LG1" t="s">
+      <c r="LP1" t="s">
         <v>552</v>
       </c>
-      <c r="LH1" t="s">
+      <c r="LQ1" t="s">
         <v>553</v>
       </c>
-      <c r="LI1" t="s">
+      <c r="LR1" t="s">
         <v>554</v>
       </c>
-      <c r="LJ1" t="s">
+      <c r="LS1" t="s">
         <v>555</v>
       </c>
-      <c r="LK1" t="s">
+      <c r="LT1" t="s">
         <v>556</v>
       </c>
-      <c r="LL1" t="s">
+      <c r="LU1" t="s">
         <v>557</v>
       </c>
-      <c r="LM1" t="s">
+      <c r="LV1" t="s">
         <v>558</v>
       </c>
-      <c r="LN1" t="s">
+      <c r="LW1" t="s">
         <v>559</v>
       </c>
-      <c r="LO1" t="s">
+      <c r="LX1" t="s">
         <v>560</v>
       </c>
-      <c r="LP1" t="s">
+      <c r="LY1" t="s">
         <v>561</v>
       </c>
-      <c r="LQ1" t="s">
+      <c r="LZ1" t="s">
         <v>562</v>
       </c>
-      <c r="LR1" t="s">
+      <c r="MA1" t="s">
         <v>563</v>
       </c>
-      <c r="LS1" t="s">
+      <c r="MB1" t="s">
         <v>564</v>
       </c>
-      <c r="LT1" t="s">
+      <c r="MC1" t="s">
         <v>565</v>
       </c>
-      <c r="LU1" t="s">
+      <c r="MD1" t="s">
         <v>566</v>
       </c>
-      <c r="LV1" t="s">
+      <c r="ME1" t="s">
         <v>567</v>
       </c>
-      <c r="LW1" t="s">
+      <c r="MF1" t="s">
         <v>568</v>
       </c>
-      <c r="LX1" t="s">
+      <c r="MG1" t="s">
         <v>569</v>
       </c>
-      <c r="LY1" t="s">
+      <c r="MH1" t="s">
         <v>570</v>
       </c>
-      <c r="LZ1" t="s">
+      <c r="MI1" t="s">
         <v>571</v>
       </c>
-      <c r="MA1" t="s">
+      <c r="MJ1" t="s">
         <v>572</v>
       </c>
-      <c r="MB1" t="s">
+      <c r="MK1" t="s">
         <v>573</v>
       </c>
-      <c r="MC1" t="s">
+      <c r="ML1" t="s">
         <v>574</v>
       </c>
-      <c r="MD1" t="s">
+      <c r="MM1" t="s">
         <v>575</v>
       </c>
-      <c r="ME1" t="s">
+      <c r="MN1" t="s">
         <v>576</v>
       </c>
-      <c r="MF1" t="s">
+      <c r="MO1" t="s">
         <v>577</v>
       </c>
-      <c r="MG1" t="s">
+      <c r="MP1" t="s">
         <v>578</v>
       </c>
-      <c r="MH1" t="s">
+      <c r="MQ1" t="s">
         <v>579</v>
       </c>
-      <c r="MI1" t="s">
+      <c r="MR1" t="s">
         <v>580</v>
       </c>
-      <c r="MJ1" t="s">
+      <c r="MS1" t="s">
         <v>581</v>
       </c>
-      <c r="MK1" t="s">
+      <c r="MT1" t="s">
         <v>582</v>
       </c>
-      <c r="ML1" t="s">
+      <c r="MU1" t="s">
         <v>583</v>
       </c>
-      <c r="MM1" t="s">
+      <c r="MV1" t="s">
         <v>584</v>
       </c>
-      <c r="MN1" t="s">
+      <c r="MW1" t="s">
         <v>585</v>
       </c>
-      <c r="MO1" t="s">
+      <c r="MX1" t="s">
         <v>586</v>
       </c>
-      <c r="MP1" t="s">
+      <c r="MY1" t="s">
         <v>587</v>
       </c>
-      <c r="MQ1" t="s">
+      <c r="MZ1" t="s">
         <v>588</v>
       </c>
-      <c r="MR1" t="s">
+      <c r="NA1" t="s">
         <v>589</v>
       </c>
-      <c r="MS1" t="s">
+      <c r="NB1" t="s">
         <v>590</v>
       </c>
-      <c r="MT1" t="s">
+      <c r="NC1" t="s">
         <v>591</v>
       </c>
-      <c r="MU1" t="s">
+      <c r="ND1" t="s">
         <v>592</v>
       </c>
-      <c r="MV1" t="s">
+      <c r="NE1" t="s">
         <v>593</v>
       </c>
-      <c r="MW1" t="s">
+      <c r="NF1" t="s">
         <v>594</v>
       </c>
-      <c r="MX1" t="s">
+      <c r="NG1" t="s">
         <v>595</v>
       </c>
-      <c r="MY1" t="s">
+      <c r="NH1" t="s">
         <v>596</v>
       </c>
-      <c r="MZ1" t="s">
+      <c r="NI1" t="s">
         <v>597</v>
       </c>
-      <c r="NA1" t="s">
+      <c r="NJ1" t="s">
         <v>598</v>
       </c>
-      <c r="NB1" t="s">
+      <c r="NK1" t="s">
         <v>599</v>
       </c>
-      <c r="NC1" t="s">
+      <c r="NL1" t="s">
         <v>600</v>
       </c>
-      <c r="ND1" t="s">
+      <c r="NM1" t="s">
         <v>601</v>
       </c>
-      <c r="NE1" t="s">
+      <c r="NN1" t="s">
         <v>602</v>
       </c>
-      <c r="NF1" t="s">
+      <c r="NO1" t="s">
         <v>603</v>
       </c>
-      <c r="NG1" t="s">
+      <c r="NP1" t="s">
         <v>604</v>
       </c>
-      <c r="NH1" t="s">
+      <c r="NQ1" t="s">
         <v>605</v>
       </c>
-      <c r="NI1" t="s">
+      <c r="NR1" t="s">
         <v>606</v>
       </c>
-      <c r="NJ1" t="s">
+      <c r="NS1" t="s">
         <v>607</v>
       </c>
-      <c r="NK1" t="s">
+      <c r="NT1" t="s">
         <v>608</v>
       </c>
-      <c r="NL1" t="s">
+      <c r="NU1" t="s">
         <v>609</v>
       </c>
-      <c r="NM1" t="s">
+      <c r="NV1" t="s">
         <v>610</v>
       </c>
-      <c r="NN1" t="s">
+      <c r="NW1" t="s">
         <v>611</v>
       </c>
-      <c r="NO1" t="s">
+      <c r="NX1" t="s">
         <v>612</v>
       </c>
-      <c r="NP1" t="s">
+      <c r="NY1" t="s">
         <v>613</v>
       </c>
-      <c r="NQ1" t="s">
+      <c r="NZ1" t="s">
         <v>614</v>
       </c>
-      <c r="NR1" t="s">
+      <c r="OA1" t="s">
         <v>615</v>
       </c>
-      <c r="NS1" t="s">
+      <c r="OB1" t="s">
         <v>616</v>
       </c>
-      <c r="NT1" t="s">
+      <c r="OC1" t="s">
         <v>617</v>
       </c>
-      <c r="NU1" t="s">
+      <c r="OD1" t="s">
         <v>618</v>
       </c>
-      <c r="NV1" t="s">
+      <c r="OE1" t="s">
         <v>619</v>
       </c>
-      <c r="NW1" t="s">
+      <c r="OF1" t="s">
         <v>620</v>
       </c>
-      <c r="NX1" t="s">
+      <c r="OG1" t="s">
         <v>621</v>
       </c>
-      <c r="NY1" t="s">
+      <c r="OH1" t="s">
         <v>622</v>
       </c>
-      <c r="NZ1" t="s">
+      <c r="OI1" t="s">
         <v>623</v>
       </c>
-      <c r="OA1" t="s">
+      <c r="OJ1" t="s">
         <v>624</v>
       </c>
-      <c r="OB1" t="s">
+      <c r="OK1" t="s">
         <v>625</v>
       </c>
-      <c r="OC1" t="s">
+      <c r="OL1" t="s">
         <v>626</v>
       </c>
-      <c r="OD1" t="s">
+      <c r="OM1" t="s">
         <v>627</v>
       </c>
-      <c r="OE1" t="s">
+      <c r="ON1" t="s">
         <v>628</v>
       </c>
-      <c r="OF1" t="s">
+      <c r="OO1" t="s">
         <v>629</v>
       </c>
-      <c r="OG1" t="s">
+      <c r="OP1" t="s">
         <v>630</v>
       </c>
-      <c r="OH1" t="s">
+      <c r="OQ1" t="s">
         <v>631</v>
       </c>
-      <c r="OI1" t="s">
+      <c r="OR1" t="s">
         <v>632</v>
       </c>
-      <c r="OJ1" t="s">
+      <c r="OS1" t="s">
         <v>633</v>
       </c>
-      <c r="OK1" t="s">
+      <c r="OT1" t="s">
         <v>634</v>
       </c>
-      <c r="OL1" t="s">
+      <c r="OU1" t="s">
         <v>635</v>
       </c>
-      <c r="OM1" t="s">
+      <c r="OV1" t="s">
         <v>636</v>
       </c>
-      <c r="ON1" t="s">
+      <c r="OW1" t="s">
         <v>637</v>
       </c>
-      <c r="OO1" t="s">
+      <c r="OX1" t="s">
         <v>638</v>
       </c>
-      <c r="OP1" t="s">
+      <c r="OY1" t="s">
         <v>639</v>
       </c>
-      <c r="OQ1" t="s">
+      <c r="OZ1" t="s">
         <v>640</v>
       </c>
-      <c r="OR1" t="s">
+      <c r="PA1" t="s">
         <v>641</v>
       </c>
-      <c r="OS1" t="s">
+      <c r="PB1" t="s">
         <v>642</v>
       </c>
-      <c r="OT1" t="s">
+      <c r="PC1" t="s">
         <v>643</v>
       </c>
-      <c r="OU1" t="s">
+      <c r="PD1" t="s">
         <v>644</v>
       </c>
-      <c r="OV1" t="s">
+      <c r="PE1" t="s">
         <v>645</v>
       </c>
-      <c r="OW1" t="s">
+      <c r="PF1" t="s">
         <v>646</v>
       </c>
-      <c r="OX1" t="s">
+      <c r="PG1" t="s">
         <v>647</v>
       </c>
-      <c r="OY1" t="s">
+      <c r="PH1" t="s">
         <v>648</v>
       </c>
-      <c r="OZ1" t="s">
+      <c r="PI1" t="s">
         <v>649</v>
       </c>
-      <c r="PA1" t="s">
+      <c r="PJ1" t="s">
         <v>650</v>
       </c>
-      <c r="PB1" t="s">
+      <c r="PK1" t="s">
         <v>651</v>
       </c>
-      <c r="PC1" t="s">
+      <c r="PL1" t="s">
         <v>652</v>
       </c>
-      <c r="PD1" t="s">
+      <c r="PM1" t="s">
         <v>653</v>
       </c>
-      <c r="PE1" t="s">
+      <c r="PN1" t="s">
         <v>654</v>
       </c>
-      <c r="PF1" t="s">
+      <c r="PO1" t="s">
         <v>655</v>
       </c>
-      <c r="PG1" t="s">
+      <c r="PP1" t="s">
         <v>656</v>
       </c>
-      <c r="PH1" t="s">
+      <c r="PQ1" t="s">
         <v>657</v>
       </c>
-      <c r="PI1" t="s">
+      <c r="PR1" t="s">
         <v>658</v>
       </c>
-      <c r="PJ1" t="s">
+      <c r="PS1" t="s">
         <v>659</v>
       </c>
-      <c r="PK1" t="s">
+      <c r="PT1" t="s">
         <v>660</v>
       </c>
-      <c r="PL1" t="s">
+      <c r="PU1" t="s">
         <v>661</v>
       </c>
-      <c r="PM1" t="s">
+      <c r="PV1" t="s">
         <v>662</v>
       </c>
-      <c r="PN1" t="s">
+      <c r="PW1" t="s">
         <v>663</v>
       </c>
-      <c r="PO1" t="s">
+      <c r="PX1" t="s">
         <v>664</v>
       </c>
-      <c r="PP1" t="s">
+      <c r="PY1" t="s">
         <v>665</v>
       </c>
-      <c r="PQ1" t="s">
+      <c r="PZ1" t="s">
         <v>666</v>
       </c>
-      <c r="PR1" t="s">
+      <c r="QA1" t="s">
         <v>667</v>
       </c>
-      <c r="PS1" t="s">
+      <c r="QB1" t="s">
         <v>668</v>
       </c>
-      <c r="PT1" t="s">
+      <c r="QC1" t="s">
         <v>669</v>
       </c>
-      <c r="PU1" t="s">
+      <c r="QD1" t="s">
         <v>670</v>
       </c>
-      <c r="PV1" t="s">
+      <c r="QE1" t="s">
         <v>671</v>
       </c>
-      <c r="PW1" t="s">
+      <c r="QF1" t="s">
         <v>672</v>
       </c>
-      <c r="PX1" t="s">
+      <c r="QG1" t="s">
         <v>673</v>
       </c>
-      <c r="PY1" t="s">
+      <c r="QH1" t="s">
         <v>674</v>
       </c>
-      <c r="PZ1" t="s">
+      <c r="QI1" t="s">
         <v>675</v>
       </c>
-      <c r="QA1" t="s">
+      <c r="QJ1" t="s">
         <v>676</v>
       </c>
-      <c r="QB1" t="s">
+      <c r="QK1" t="s">
         <v>677</v>
       </c>
-      <c r="QC1" t="s">
+      <c r="QL1" t="s">
         <v>678</v>
       </c>
-      <c r="QD1" t="s">
+      <c r="QM1" t="s">
         <v>679</v>
       </c>
-      <c r="QE1" t="s">
+      <c r="QN1" t="s">
         <v>680</v>
       </c>
-      <c r="QF1" t="s">
+      <c r="QO1" t="s">
         <v>681</v>
       </c>
-      <c r="QG1" t="s">
+      <c r="QP1" t="s">
         <v>682</v>
       </c>
-      <c r="QH1" t="s">
+      <c r="QQ1" t="s">
         <v>683</v>
       </c>
-      <c r="QI1" t="s">
+      <c r="QR1" t="s">
         <v>684</v>
       </c>
-      <c r="QJ1" t="s">
+      <c r="QS1" t="s">
         <v>685</v>
       </c>
-      <c r="QK1" t="s">
+      <c r="QT1" t="s">
         <v>686</v>
       </c>
-      <c r="QL1" t="s">
+      <c r="QU1" t="s">
         <v>687</v>
       </c>
-      <c r="QM1" t="s">
+      <c r="QV1" t="s">
         <v>688</v>
       </c>
-      <c r="QN1" t="s">
+      <c r="QW1" t="s">
         <v>689</v>
       </c>
-      <c r="QO1" t="s">
+      <c r="QX1" t="s">
         <v>690</v>
       </c>
-      <c r="QP1" t="s">
+      <c r="QY1" t="s">
         <v>691</v>
       </c>
-      <c r="QQ1" t="s">
+      <c r="QZ1" t="s">
         <v>692</v>
       </c>
-      <c r="QR1" t="s">
+      <c r="RA1" t="s">
         <v>693</v>
       </c>
-      <c r="QS1" t="s">
+      <c r="RB1" t="s">
         <v>694</v>
       </c>
-      <c r="QT1" t="s">
+      <c r="RC1" t="s">
         <v>695</v>
       </c>
-      <c r="QU1" t="s">
+      <c r="RD1" t="s">
         <v>696</v>
       </c>
-      <c r="QV1" t="s">
+      <c r="RE1" t="s">
         <v>697</v>
       </c>
-      <c r="QW1" t="s">
+      <c r="RF1" t="s">
         <v>698</v>
       </c>
-      <c r="QX1" t="s">
+      <c r="RG1" t="s">
         <v>699</v>
       </c>
-      <c r="QY1" t="s">
+      <c r="RH1" t="s">
         <v>700</v>
       </c>
-      <c r="QZ1" t="s">
+      <c r="RI1" t="s">
         <v>701</v>
       </c>
-      <c r="RA1" t="s">
+      <c r="RJ1" t="s">
         <v>702</v>
       </c>
-      <c r="RB1" t="s">
+      <c r="RK1" t="s">
         <v>703</v>
       </c>
-      <c r="RC1" t="s">
+      <c r="RL1" t="s">
         <v>704</v>
       </c>
-      <c r="RD1" t="s">
+      <c r="RM1" t="s">
         <v>705</v>
       </c>
-      <c r="RE1" t="s">
+      <c r="RN1" t="s">
         <v>706</v>
       </c>
-      <c r="RF1" t="s">
+      <c r="RO1" t="s">
         <v>707</v>
       </c>
-      <c r="RG1" t="s">
+      <c r="RP1" t="s">
         <v>708</v>
       </c>
-      <c r="RH1" t="s">
+      <c r="RQ1" t="s">
         <v>709</v>
       </c>
-      <c r="RI1" t="s">
+      <c r="RR1" t="s">
         <v>710</v>
       </c>
-      <c r="RJ1" t="s">
+      <c r="RS1" t="s">
         <v>711</v>
       </c>
-      <c r="RK1" t="s">
+      <c r="RT1" t="s">
         <v>712</v>
       </c>
-      <c r="RL1" t="s">
+      <c r="RU1" t="s">
         <v>713</v>
       </c>
-      <c r="RM1" t="s">
+      <c r="RV1" t="s">
         <v>714</v>
       </c>
-      <c r="RN1" t="s">
+      <c r="RW1" t="s">
         <v>715</v>
       </c>
-      <c r="RO1" t="s">
+      <c r="RX1" t="s">
         <v>716</v>
       </c>
-      <c r="RP1" t="s">
+      <c r="RY1" t="s">
         <v>717</v>
       </c>
-      <c r="RQ1" t="s">
+      <c r="RZ1" t="s">
         <v>718</v>
       </c>
-      <c r="RR1" t="s">
+      <c r="SA1" t="s">
         <v>719</v>
       </c>
-      <c r="RS1" t="s">
+      <c r="SB1" t="s">
         <v>720</v>
       </c>
-      <c r="RT1" t="s">
+      <c r="SC1" t="s">
         <v>721</v>
       </c>
-      <c r="RU1" t="s">
+      <c r="SD1" t="s">
         <v>722</v>
       </c>
-      <c r="RV1" t="s">
+      <c r="SE1" t="s">
         <v>723</v>
       </c>
-      <c r="RW1" t="s">
+      <c r="SF1" t="s">
         <v>724</v>
       </c>
-      <c r="RX1" t="s">
+      <c r="SG1" t="s">
         <v>725</v>
       </c>
-      <c r="RY1" t="s">
+      <c r="SH1" t="s">
         <v>726</v>
       </c>
-      <c r="RZ1" t="s">
+      <c r="SI1" t="s">
         <v>727</v>
       </c>
-      <c r="SA1" t="s">
+      <c r="SJ1" t="s">
         <v>728</v>
       </c>
-      <c r="SB1" t="s">
+      <c r="SK1" t="s">
         <v>729</v>
       </c>
-      <c r="SC1" t="s">
+      <c r="SL1" t="s">
         <v>730</v>
       </c>
-      <c r="SD1" t="s">
+      <c r="SM1" t="s">
         <v>731</v>
       </c>
-      <c r="SE1" t="s">
+      <c r="SN1" t="s">
         <v>732</v>
       </c>
-      <c r="SF1" t="s">
+      <c r="SO1" t="s">
         <v>733</v>
       </c>
-      <c r="SG1" t="s">
+      <c r="SP1" t="s">
         <v>734</v>
       </c>
-      <c r="SH1" t="s">
+      <c r="SQ1" t="s">
         <v>735</v>
       </c>
-      <c r="SI1" t="s">
+      <c r="SR1" t="s">
         <v>736</v>
       </c>
-      <c r="SJ1" t="s">
+      <c r="SS1" t="s">
         <v>737</v>
       </c>
-      <c r="SK1" t="s">
+      <c r="ST1" t="s">
         <v>738</v>
       </c>
-      <c r="SL1" t="s">
+      <c r="SU1" t="s">
         <v>739</v>
       </c>
-      <c r="SM1" t="s">
+      <c r="SV1" t="s">
         <v>740</v>
       </c>
-      <c r="SN1" t="s">
+      <c r="SW1" t="s">
         <v>741</v>
       </c>
-      <c r="SO1" t="s">
+      <c r="SX1" t="s">
         <v>742</v>
       </c>
-      <c r="SP1" t="s">
+      <c r="SY1" t="s">
         <v>743</v>
       </c>
-      <c r="SQ1" t="s">
+      <c r="SZ1" t="s">
         <v>744</v>
       </c>
-      <c r="SR1" t="s">
+      <c r="TA1" t="s">
         <v>745</v>
       </c>
-      <c r="SS1" t="s">
+      <c r="TB1" t="s">
         <v>746</v>
       </c>
-      <c r="ST1" t="s">
+      <c r="TC1" t="s">
         <v>747</v>
       </c>
-      <c r="SU1" t="s">
+      <c r="TD1" t="s">
         <v>748</v>
       </c>
-      <c r="SV1" t="s">
+      <c r="TE1" t="s">
         <v>749</v>
       </c>
-      <c r="SW1" t="s">
+      <c r="TF1" t="s">
         <v>750</v>
       </c>
-      <c r="SX1" t="s">
+      <c r="TG1" t="s">
         <v>751</v>
       </c>
-      <c r="SY1" t="s">
+      <c r="TH1" t="s">
         <v>752</v>
       </c>
-      <c r="SZ1" t="s">
+      <c r="TI1" t="s">
         <v>753</v>
       </c>
-      <c r="TA1" t="s">
+      <c r="TJ1" t="s">
         <v>754</v>
       </c>
-      <c r="TB1" t="s">
+      <c r="TK1" t="s">
         <v>755</v>
       </c>
-      <c r="TC1" t="s">
+      <c r="TL1" t="s">
         <v>756</v>
       </c>
-      <c r="TD1" t="s">
+      <c r="TM1" t="s">
         <v>757</v>
       </c>
-      <c r="TE1" t="s">
+      <c r="TN1" t="s">
         <v>758</v>
       </c>
-      <c r="TF1" t="s">
+      <c r="TO1" t="s">
         <v>759</v>
       </c>
-      <c r="TG1" t="s">
+      <c r="TP1" t="s">
         <v>760</v>
       </c>
-      <c r="TH1" t="s">
+      <c r="TQ1" t="s">
         <v>761</v>
       </c>
-      <c r="TI1" t="s">
+      <c r="TR1" t="s">
         <v>762</v>
       </c>
-      <c r="TJ1" t="s">
+      <c r="TS1" t="s">
         <v>763</v>
       </c>
-      <c r="TK1" t="s">
+      <c r="TT1" t="s">
         <v>764</v>
       </c>
-      <c r="TL1" t="s">
+      <c r="TU1" t="s">
         <v>765</v>
       </c>
-      <c r="TM1" t="s">
+      <c r="TV1" t="s">
         <v>766</v>
       </c>
-      <c r="TN1" t="s">
+      <c r="TW1" t="s">
         <v>767</v>
       </c>
-      <c r="TO1" t="s">
+      <c r="TX1" t="s">
         <v>768</v>
       </c>
-      <c r="TP1" t="s">
+      <c r="TY1" t="s">
         <v>769</v>
       </c>
-      <c r="TQ1" t="s">
+      <c r="TZ1" t="s">
         <v>770</v>
       </c>
-      <c r="TR1" t="s">
+      <c r="UA1" t="s">
         <v>771</v>
       </c>
-      <c r="TS1" t="s">
+      <c r="UB1" t="s">
         <v>772</v>
       </c>
-      <c r="TT1" t="s">
+      <c r="UC1" t="s">
         <v>773</v>
       </c>
-      <c r="TU1" t="s">
+      <c r="UD1" t="s">
         <v>774</v>
       </c>
-      <c r="TV1" t="s">
+      <c r="UE1" t="s">
         <v>775</v>
       </c>
-      <c r="TW1" t="s">
+      <c r="UF1" t="s">
         <v>776</v>
       </c>
-      <c r="TX1" t="s">
+      <c r="UG1" t="s">
         <v>777</v>
       </c>
-      <c r="TY1" t="s">
+      <c r="UH1" t="s">
         <v>778</v>
       </c>
-      <c r="TZ1" t="s">
+      <c r="UI1" t="s">
         <v>779</v>
       </c>
-      <c r="UA1" t="s">
+      <c r="UJ1" t="s">
         <v>780</v>
       </c>
-      <c r="UB1" t="s">
+      <c r="UK1" t="s">
         <v>781</v>
       </c>
-      <c r="UC1" t="s">
+      <c r="UL1" t="s">
         <v>782</v>
-      </c>
-      <c r="UD1" t="s">
-        <v>783</v>
-      </c>
-      <c r="UE1" t="s">
-        <v>784</v>
-      </c>
-      <c r="UF1" t="s">
-        <v>785</v>
-      </c>
-      <c r="UG1" t="s">
-        <v>786</v>
-      </c>
-      <c r="UH1" t="s">
-        <v>787</v>
-      </c>
-      <c r="UI1" t="s">
-        <v>788</v>
-      </c>
-      <c r="UJ1" t="s">
-        <v>789</v>
-      </c>
-      <c r="UK1" t="s">
-        <v>790</v>
-      </c>
-      <c r="UL1" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:558">
@@ -7119,9 +7119,6 @@
       <c r="B2">
         <v>290698</v>
       </c>
-      <c r="G2">
-        <v>3900144</v>
-      </c>
       <c r="O2">
         <v>379139</v>
       </c>
@@ -7129,13 +7126,10 @@
         <v>419172</v>
       </c>
       <c r="S2">
-        <v>399317</v>
-      </c>
-      <c r="AF2">
-        <v>290532</v>
+        <v>379497</v>
       </c>
       <c r="AG2">
-        <v>280356</v>
+        <v>3000238</v>
       </c>
       <c r="AH2">
         <v>3900144</v>
@@ -7143,16 +7137,16 @@
       <c r="AI2">
         <v>290532</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>479049</v>
       </c>
       <c r="AO2">
         <v>479049</v>
       </c>
       <c r="AZ2">
-        <v>349040</v>
-      </c>
-      <c r="BC2">
+        <v>419001</v>
+      </c>
+      <c r="BD2">
         <v>479176</v>
       </c>
       <c r="CL2">
@@ -7168,7 +7162,7 @@
         <v>419172</v>
       </c>
       <c r="DL2">
-        <v>399319</v>
+        <v>419216</v>
       </c>
       <c r="EC2">
         <v>50002</v>
@@ -7189,7 +7183,7 @@
         <v>399317</v>
       </c>
       <c r="ET2">
-        <v>369247</v>
+        <v>419172</v>
       </c>
       <c r="EW2">
         <v>449277</v>
@@ -7224,14 +7218,14 @@
       <c r="GK2">
         <v>399319</v>
       </c>
+      <c r="GM2">
+        <v>399331</v>
+      </c>
       <c r="GT2">
-        <v>319426</v>
-      </c>
-      <c r="GV2">
-        <v>399317</v>
+        <v>478858</v>
       </c>
       <c r="HP2">
-        <v>379139</v>
+        <v>280273</v>
       </c>
       <c r="HS2">
         <v>359404</v>
@@ -7252,7 +7246,7 @@
         <v>399018</v>
       </c>
       <c r="JT2">
-        <v>3000238</v>
+        <v>379133</v>
       </c>
       <c r="JX2">
         <v>419216</v>
@@ -7264,10 +7258,10 @@
         <v>419172</v>
       </c>
       <c r="KG2">
-        <v>149463</v>
+        <v>399329</v>
       </c>
       <c r="KH2">
-        <v>419172</v>
+        <v>399317</v>
       </c>
       <c r="KM2">
         <v>3000238</v>
@@ -7275,9 +7269,6 @@
       <c r="KP2">
         <v>479088</v>
       </c>
-      <c r="KS2">
-        <v>319266</v>
-      </c>
       <c r="LJ2">
         <v>309177</v>
       </c>
@@ -7290,6 +7281,12 @@
       <c r="LM2">
         <v>449277</v>
       </c>
+      <c r="LU2">
+        <v>419461</v>
+      </c>
+      <c r="LW2">
+        <v>419461</v>
+      </c>
       <c r="LY2">
         <v>419172</v>
       </c>
@@ -7297,19 +7294,22 @@
         <v>290413</v>
       </c>
       <c r="MK2">
-        <v>290532</v>
+        <v>381342</v>
       </c>
       <c r="MM2">
-        <v>419461</v>
+        <v>399317</v>
+      </c>
+      <c r="MT2">
+        <v>381342</v>
       </c>
       <c r="MX2">
-        <v>479049</v>
+        <v>3900144</v>
       </c>
       <c r="MY2">
         <v>280273</v>
       </c>
       <c r="NA2">
-        <v>319274</v>
+        <v>290396</v>
       </c>
       <c r="ND2">
         <v>319252</v>
@@ -7320,9 +7320,6 @@
       <c r="NH2">
         <v>399317</v>
       </c>
-      <c r="NM2">
-        <v>381342</v>
-      </c>
       <c r="NO2">
         <v>290377</v>
       </c>
@@ -7335,14 +7332,17 @@
       <c r="NR2">
         <v>399342</v>
       </c>
+      <c r="OQ2">
+        <v>290426</v>
+      </c>
       <c r="OR2">
         <v>419130</v>
       </c>
       <c r="OT2">
-        <v>420317</v>
+        <v>319274</v>
       </c>
       <c r="PK2">
-        <v>419216</v>
+        <v>399319</v>
       </c>
       <c r="QS2">
         <v>419172</v>
@@ -7356,20 +7356,29 @@
       <c r="RN2">
         <v>479176</v>
       </c>
+      <c r="RR2">
+        <v>319266</v>
+      </c>
       <c r="RZ2">
         <v>399317</v>
       </c>
+      <c r="SB2">
+        <v>290532</v>
+      </c>
       <c r="SJ2">
         <v>3900144</v>
       </c>
       <c r="SK2">
-        <v>449277</v>
+        <v>479049</v>
       </c>
       <c r="SQ2">
         <v>399317</v>
       </c>
       <c r="ST2">
-        <v>419001</v>
+        <v>478858</v>
+      </c>
+      <c r="SX2">
+        <v>349040</v>
       </c>
       <c r="SY2">
         <v>290532</v>
@@ -7378,19 +7387,10 @@
         <v>399317</v>
       </c>
       <c r="TX2">
-        <v>419001</v>
-      </c>
-      <c r="TZ2">
-        <v>478858</v>
-      </c>
-      <c r="UA2">
-        <v>290396</v>
-      </c>
-      <c r="UE2">
-        <v>290426</v>
+        <v>290532</v>
       </c>
       <c r="UG2">
-        <v>280273</v>
+        <v>379139</v>
       </c>
       <c r="UI2">
         <v>420261</v>
@@ -7416,10 +7416,10 @@
         <v>280273</v>
       </c>
       <c r="S3">
-        <v>290390</v>
+        <v>419461</v>
       </c>
       <c r="AG3">
-        <v>290350</v>
+        <v>359404</v>
       </c>
       <c r="AI3">
         <v>419461</v>
@@ -7427,9 +7427,6 @@
       <c r="AO3">
         <v>290396</v>
       </c>
-      <c r="AZ3">
-        <v>319426</v>
-      </c>
       <c r="CQ3">
         <v>349040</v>
       </c>
@@ -7455,7 +7452,7 @@
         <v>399018</v>
       </c>
       <c r="ET3">
-        <v>419166</v>
+        <v>280273</v>
       </c>
       <c r="EW3">
         <v>4400630</v>
@@ -7473,16 +7470,19 @@
         <v>50002</v>
       </c>
       <c r="FQ3">
-        <v>478858</v>
+        <v>449277</v>
       </c>
       <c r="FR3">
-        <v>419216</v>
+        <v>369247</v>
       </c>
       <c r="GF3">
         <v>399018</v>
       </c>
       <c r="GK3">
-        <v>399331</v>
+        <v>280356</v>
+      </c>
+      <c r="GT3">
+        <v>419001</v>
       </c>
       <c r="HP3">
         <v>369247</v>
@@ -7500,13 +7500,13 @@
         <v>420261</v>
       </c>
       <c r="IN3">
-        <v>280273</v>
+        <v>290532</v>
       </c>
       <c r="JE3">
         <v>381342</v>
       </c>
       <c r="JT3">
-        <v>359404</v>
+        <v>290400</v>
       </c>
       <c r="JX3">
         <v>419130</v>
@@ -7515,10 +7515,10 @@
         <v>419216</v>
       </c>
       <c r="KG3">
-        <v>290396</v>
+        <v>290377</v>
       </c>
       <c r="KH3">
-        <v>290377</v>
+        <v>399329</v>
       </c>
       <c r="KM3">
         <v>319252</v>
@@ -7536,14 +7536,20 @@
         <v>4400630</v>
       </c>
       <c r="MK3">
+        <v>319426</v>
+      </c>
+      <c r="MM3">
+        <v>319426</v>
+      </c>
+      <c r="MX3">
         <v>419461</v>
-      </c>
-      <c r="MX3">
-        <v>478858</v>
       </c>
       <c r="MY3">
         <v>369247</v>
       </c>
+      <c r="NA3">
+        <v>420317</v>
+      </c>
       <c r="ND3">
         <v>319266</v>
       </c>
@@ -7554,16 +7560,16 @@
         <v>290396</v>
       </c>
       <c r="OR3">
-        <v>379497</v>
+        <v>419166</v>
       </c>
       <c r="OT3">
         <v>309334</v>
       </c>
       <c r="PK3">
-        <v>369232</v>
+        <v>369295</v>
       </c>
       <c r="RI3">
-        <v>369247</v>
+        <v>309177</v>
       </c>
       <c r="RK3">
         <v>369295</v>
@@ -7575,7 +7581,7 @@
         <v>399331</v>
       </c>
       <c r="SK3">
-        <v>479049</v>
+        <v>4400630</v>
       </c>
       <c r="SQ3">
         <v>349040</v>
@@ -7586,17 +7592,14 @@
       <c r="TJ3">
         <v>2901722</v>
       </c>
-      <c r="TX3">
-        <v>381342</v>
-      </c>
       <c r="UG3">
-        <v>419130</v>
+        <v>419166</v>
       </c>
       <c r="UK3">
         <v>319274</v>
       </c>
       <c r="UL3">
-        <v>309177</v>
+        <v>479088</v>
       </c>
     </row>
     <row r="4" spans="1:558">
@@ -7610,7 +7613,10 @@
         <v>369247</v>
       </c>
       <c r="S4">
-        <v>399213</v>
+        <v>290377</v>
+      </c>
+      <c r="AG4">
+        <v>280356</v>
       </c>
       <c r="AI4">
         <v>419117</v>
@@ -7625,7 +7631,7 @@
         <v>158832</v>
       </c>
       <c r="DL4">
-        <v>369295</v>
+        <v>369232</v>
       </c>
       <c r="EC4">
         <v>290390</v>
@@ -7637,7 +7643,7 @@
         <v>478918</v>
       </c>
       <c r="ET4">
-        <v>290532</v>
+        <v>369247</v>
       </c>
       <c r="EW4">
         <v>478858</v>
@@ -7655,34 +7661,34 @@
         <v>290698</v>
       </c>
       <c r="FQ4">
-        <v>381284</v>
+        <v>478858</v>
       </c>
       <c r="FR4">
-        <v>309177</v>
+        <v>419216</v>
       </c>
       <c r="GF4">
         <v>3900135</v>
       </c>
       <c r="GK4">
-        <v>280356</v>
+        <v>419141</v>
       </c>
       <c r="HP4">
-        <v>399018</v>
+        <v>419130</v>
       </c>
       <c r="HW4">
         <v>50002</v>
       </c>
       <c r="HY4">
-        <v>3900144</v>
+        <v>379133</v>
       </c>
       <c r="HZ4">
         <v>478865</v>
       </c>
       <c r="IN4">
-        <v>3000238</v>
+        <v>399319</v>
       </c>
       <c r="JT4">
-        <v>379133</v>
+        <v>280375</v>
       </c>
       <c r="JX4">
         <v>419166</v>
@@ -7691,10 +7697,10 @@
         <v>399319</v>
       </c>
       <c r="KG4">
-        <v>280381</v>
+        <v>381284</v>
       </c>
       <c r="KH4">
-        <v>4400630</v>
+        <v>419117</v>
       </c>
       <c r="LJ4">
         <v>478865</v>
@@ -7705,9 +7711,6 @@
       <c r="LM4">
         <v>280356</v>
       </c>
-      <c r="MK4">
-        <v>478858</v>
-      </c>
       <c r="MX4">
         <v>419001</v>
       </c>
@@ -7721,19 +7724,19 @@
         <v>290426</v>
       </c>
       <c r="OR4">
-        <v>379133</v>
+        <v>399018</v>
       </c>
       <c r="PK4">
         <v>479176</v>
       </c>
       <c r="RI4">
-        <v>290532</v>
+        <v>379497</v>
       </c>
       <c r="RK4">
         <v>420317</v>
       </c>
       <c r="SK4">
-        <v>4400630</v>
+        <v>290396</v>
       </c>
       <c r="SY4">
         <v>50002</v>
@@ -7742,13 +7745,13 @@
         <v>349040</v>
       </c>
       <c r="UG4">
-        <v>419166</v>
+        <v>290532</v>
       </c>
       <c r="UK4">
         <v>290350</v>
       </c>
       <c r="UL4">
-        <v>359404</v>
+        <v>399342</v>
       </c>
     </row>
     <row r="5" spans="1:558">
@@ -7762,7 +7765,10 @@
         <v>419216</v>
       </c>
       <c r="S5">
-        <v>449277</v>
+        <v>379146</v>
+      </c>
+      <c r="AG5">
+        <v>290350</v>
       </c>
       <c r="AI5">
         <v>369295</v>
@@ -7789,7 +7795,7 @@
         <v>280381</v>
       </c>
       <c r="ET5">
-        <v>399319</v>
+        <v>309177</v>
       </c>
       <c r="EW5">
         <v>419001</v>
@@ -7807,25 +7813,22 @@
         <v>419001</v>
       </c>
       <c r="FR5">
-        <v>399018</v>
+        <v>290532</v>
       </c>
       <c r="GK5">
-        <v>419141</v>
+        <v>290413</v>
       </c>
       <c r="HP5">
-        <v>419461</v>
+        <v>379497</v>
       </c>
       <c r="HY5">
-        <v>379133</v>
+        <v>479049</v>
       </c>
       <c r="HZ5">
         <v>290413</v>
       </c>
       <c r="IN5">
-        <v>399018</v>
-      </c>
-      <c r="JT5">
-        <v>290400</v>
+        <v>3000238</v>
       </c>
       <c r="JX5">
         <v>309177</v>
@@ -7833,8 +7836,11 @@
       <c r="KC5">
         <v>399342</v>
       </c>
+      <c r="KG5">
+        <v>478918</v>
+      </c>
       <c r="KH5">
-        <v>379160</v>
+        <v>359260</v>
       </c>
       <c r="LL5">
         <v>319426</v>
@@ -7843,7 +7849,7 @@
         <v>379160</v>
       </c>
       <c r="MX5">
-        <v>319252</v>
+        <v>381342</v>
       </c>
       <c r="MY5">
         <v>419166</v>
@@ -7852,28 +7858,28 @@
         <v>290350</v>
       </c>
       <c r="OR5">
-        <v>399331</v>
+        <v>50002</v>
       </c>
       <c r="PK5">
         <v>420246</v>
       </c>
       <c r="RI5">
-        <v>379497</v>
+        <v>399018</v>
       </c>
       <c r="RK5">
         <v>309334</v>
       </c>
       <c r="SK5">
-        <v>290396</v>
+        <v>290389</v>
       </c>
       <c r="SY5">
         <v>399329</v>
       </c>
       <c r="UG5">
-        <v>290532</v>
+        <v>290377</v>
       </c>
       <c r="UL5">
-        <v>399342</v>
+        <v>399331</v>
       </c>
     </row>
     <row r="6" spans="1:558">
@@ -7887,7 +7893,7 @@
         <v>419130</v>
       </c>
       <c r="S6">
-        <v>381284</v>
+        <v>478858</v>
       </c>
       <c r="AO6">
         <v>369232</v>
@@ -7898,11 +7904,14 @@
       <c r="DK6">
         <v>4700409</v>
       </c>
+      <c r="DL6">
+        <v>419151</v>
+      </c>
       <c r="EC6">
         <v>381284</v>
       </c>
       <c r="ET6">
-        <v>50002</v>
+        <v>3900144</v>
       </c>
       <c r="EW6">
         <v>379160</v>
@@ -7920,22 +7929,19 @@
         <v>379160</v>
       </c>
       <c r="FR6">
+        <v>3000238</v>
+      </c>
+      <c r="GK6">
+        <v>280375</v>
+      </c>
+      <c r="HP6">
+        <v>399018</v>
+      </c>
+      <c r="HY6">
+        <v>478858</v>
+      </c>
+      <c r="IN6">
         <v>359404</v>
-      </c>
-      <c r="GK6">
-        <v>290413</v>
-      </c>
-      <c r="HP6">
-        <v>399329</v>
-      </c>
-      <c r="HY6">
-        <v>419461</v>
-      </c>
-      <c r="IN6">
-        <v>419461</v>
-      </c>
-      <c r="JT6">
-        <v>280375</v>
       </c>
       <c r="JX6">
         <v>399319</v>
@@ -7944,37 +7950,34 @@
         <v>369232</v>
       </c>
       <c r="KH6">
-        <v>369295</v>
+        <v>379160</v>
       </c>
       <c r="LM6">
         <v>478867</v>
       </c>
       <c r="MX6">
-        <v>319274</v>
+        <v>280375</v>
       </c>
       <c r="MY6">
         <v>309177</v>
       </c>
       <c r="OR6">
-        <v>280356</v>
-      </c>
-      <c r="PK6">
-        <v>419151</v>
+        <v>379133</v>
       </c>
       <c r="RI6">
-        <v>3000238</v>
+        <v>379133</v>
       </c>
       <c r="SK6">
-        <v>290389</v>
+        <v>381284</v>
       </c>
       <c r="SY6">
         <v>379160</v>
       </c>
       <c r="UG6">
-        <v>379497</v>
+        <v>379146</v>
       </c>
       <c r="UL6">
-        <v>290396</v>
+        <v>399213</v>
       </c>
     </row>
     <row r="7" spans="1:558">
@@ -7988,7 +7991,7 @@
         <v>309177</v>
       </c>
       <c r="S7">
-        <v>478865</v>
+        <v>381284</v>
       </c>
       <c r="AO7">
         <v>419127</v>
@@ -8000,7 +8003,7 @@
         <v>419127</v>
       </c>
       <c r="ET7">
-        <v>479088</v>
+        <v>290390</v>
       </c>
       <c r="EW7">
         <v>420261</v>
@@ -8015,22 +8018,22 @@
         <v>290413</v>
       </c>
       <c r="FQ7">
-        <v>2901722</v>
+        <v>280507</v>
       </c>
       <c r="FR7">
-        <v>479088</v>
+        <v>359404</v>
       </c>
       <c r="GK7">
-        <v>280375</v>
+        <v>319266</v>
       </c>
       <c r="HP7">
-        <v>290377</v>
+        <v>419461</v>
       </c>
       <c r="HY7">
-        <v>381342</v>
+        <v>319252</v>
       </c>
       <c r="IN7">
-        <v>290698</v>
+        <v>449277</v>
       </c>
       <c r="JX7">
         <v>290390</v>
@@ -8039,19 +8042,19 @@
         <v>369295</v>
       </c>
       <c r="KH7">
-        <v>478918</v>
+        <v>280507</v>
       </c>
       <c r="LM7">
         <v>280792</v>
       </c>
       <c r="MX7">
-        <v>419151</v>
+        <v>3900135</v>
       </c>
       <c r="MY7">
         <v>379497</v>
       </c>
       <c r="OR7">
-        <v>319252</v>
+        <v>290698</v>
       </c>
       <c r="RI7">
         <v>419461</v>
@@ -8063,10 +8066,10 @@
         <v>280507</v>
       </c>
       <c r="UG7">
-        <v>419117</v>
+        <v>4400630</v>
       </c>
       <c r="UL7">
-        <v>369232</v>
+        <v>4400630</v>
       </c>
     </row>
     <row r="8" spans="1:558">
@@ -8080,7 +8083,7 @@
         <v>399319</v>
       </c>
       <c r="S8">
-        <v>280381</v>
+        <v>290413</v>
       </c>
       <c r="AO8">
         <v>369295</v>
@@ -8089,7 +8092,7 @@
         <v>419206</v>
       </c>
       <c r="ET8">
-        <v>399329</v>
+        <v>149463</v>
       </c>
       <c r="EW8">
         <v>2901722</v>
@@ -8104,22 +8107,19 @@
         <v>280375</v>
       </c>
       <c r="FQ8">
-        <v>381342</v>
+        <v>419127</v>
       </c>
       <c r="FR8">
-        <v>379133</v>
-      </c>
-      <c r="GK8">
-        <v>319266</v>
+        <v>479088</v>
       </c>
       <c r="HP8">
-        <v>359260</v>
+        <v>399329</v>
       </c>
       <c r="HY8">
-        <v>280375</v>
+        <v>319274</v>
       </c>
       <c r="IN8">
-        <v>359260</v>
+        <v>479049</v>
       </c>
       <c r="JX8">
         <v>290698</v>
@@ -8128,31 +8128,28 @@
         <v>419141</v>
       </c>
       <c r="KH8">
-        <v>478867</v>
-      </c>
-      <c r="MX8">
-        <v>3900135</v>
+        <v>419127</v>
       </c>
       <c r="MY8">
         <v>359404</v>
       </c>
       <c r="OR8">
-        <v>290400</v>
+        <v>290389</v>
       </c>
       <c r="RI8">
-        <v>419117</v>
+        <v>399329</v>
       </c>
       <c r="SK8">
-        <v>280507</v>
+        <v>381342</v>
       </c>
       <c r="SY8">
         <v>3900135</v>
       </c>
       <c r="UG8">
-        <v>399213</v>
+        <v>478858</v>
       </c>
       <c r="UL8">
-        <v>280507</v>
+        <v>419151</v>
       </c>
     </row>
     <row r="9" spans="1:558">
@@ -8166,13 +8163,13 @@
         <v>3000238</v>
       </c>
       <c r="S9">
-        <v>290426</v>
+        <v>378941</v>
       </c>
       <c r="AO9">
         <v>419206</v>
       </c>
       <c r="ET9">
-        <v>419117</v>
+        <v>369270</v>
       </c>
       <c r="EW9">
         <v>381342</v>
@@ -8187,19 +8184,19 @@
         <v>319266</v>
       </c>
       <c r="FQ9">
-        <v>158832</v>
+        <v>2901722</v>
       </c>
       <c r="FR9">
-        <v>399329</v>
+        <v>290400</v>
       </c>
       <c r="HP9">
-        <v>379146</v>
+        <v>419117</v>
       </c>
       <c r="HY9">
-        <v>290350</v>
+        <v>419151</v>
       </c>
       <c r="IN9">
-        <v>379146</v>
+        <v>280356</v>
       </c>
       <c r="JX9">
         <v>399331</v>
@@ -8208,25 +8205,22 @@
         <v>319266</v>
       </c>
       <c r="KH9">
-        <v>309334</v>
+        <v>319252</v>
       </c>
       <c r="MY9">
         <v>479088</v>
       </c>
       <c r="OR9">
-        <v>420246</v>
+        <v>369232</v>
       </c>
       <c r="RI9">
-        <v>399213</v>
+        <v>399342</v>
       </c>
       <c r="SK9">
-        <v>419127</v>
+        <v>419206</v>
       </c>
       <c r="UG9">
-        <v>149463</v>
-      </c>
-      <c r="UL9">
-        <v>419206</v>
+        <v>419001</v>
       </c>
     </row>
     <row r="10" spans="1:558">
@@ -8234,19 +8228,19 @@
         <v>9</v>
       </c>
       <c r="O10">
-        <v>419117</v>
+        <v>399331</v>
       </c>
       <c r="P10">
         <v>399018</v>
       </c>
       <c r="S10">
-        <v>419151</v>
+        <v>290426</v>
       </c>
       <c r="AO10">
         <v>420317</v>
       </c>
       <c r="ET10">
-        <v>149463</v>
+        <v>290396</v>
       </c>
       <c r="EW10">
         <v>478918</v>
@@ -8258,16 +8252,19 @@
         <v>319426</v>
       </c>
       <c r="FQ10">
-        <v>378941</v>
+        <v>158832</v>
       </c>
       <c r="FR10">
-        <v>399342</v>
+        <v>479176</v>
       </c>
       <c r="HP10">
-        <v>478858</v>
+        <v>399213</v>
+      </c>
+      <c r="HY10">
+        <v>290350</v>
       </c>
       <c r="IN10">
-        <v>479049</v>
+        <v>420261</v>
       </c>
       <c r="JX10">
         <v>369270</v>
@@ -8275,20 +8272,23 @@
       <c r="KC10">
         <v>290426</v>
       </c>
+      <c r="KH10">
+        <v>478918</v>
+      </c>
       <c r="MY10">
-        <v>399329</v>
+        <v>290390</v>
+      </c>
+      <c r="OR10">
+        <v>369295</v>
       </c>
       <c r="RI10">
-        <v>149463</v>
+        <v>290390</v>
       </c>
       <c r="SK10">
-        <v>419206</v>
+        <v>478918</v>
       </c>
       <c r="UG10">
-        <v>369270</v>
-      </c>
-      <c r="UL10">
-        <v>349040</v>
+        <v>379160</v>
       </c>
     </row>
     <row r="11" spans="1:558">
@@ -8296,19 +8296,19 @@
         <v>10</v>
       </c>
       <c r="O11">
-        <v>359260</v>
+        <v>419117</v>
       </c>
       <c r="P11">
         <v>50002</v>
       </c>
       <c r="S11">
-        <v>4700409</v>
+        <v>290350</v>
       </c>
       <c r="AO11">
         <v>309334</v>
       </c>
       <c r="ET11">
-        <v>369270</v>
+        <v>419001</v>
       </c>
       <c r="EW11">
         <v>158832</v>
@@ -8320,16 +8320,16 @@
         <v>290350</v>
       </c>
       <c r="FQ11">
-        <v>4700409</v>
+        <v>378941</v>
       </c>
       <c r="FR11">
-        <v>290390</v>
+        <v>478865</v>
       </c>
       <c r="HP11">
-        <v>379160</v>
+        <v>359260</v>
       </c>
       <c r="IN11">
-        <v>420261</v>
+        <v>479176</v>
       </c>
       <c r="JX11">
         <v>290389</v>
@@ -8337,20 +8337,23 @@
       <c r="KC11">
         <v>420246</v>
       </c>
+      <c r="KH11">
+        <v>349040</v>
+      </c>
       <c r="MY11">
-        <v>290390</v>
+        <v>290698</v>
+      </c>
+      <c r="OR11">
+        <v>290400</v>
       </c>
       <c r="RI11">
-        <v>319252</v>
+        <v>290377</v>
       </c>
       <c r="SK11">
-        <v>478918</v>
+        <v>478867</v>
       </c>
       <c r="UG11">
-        <v>449277</v>
-      </c>
-      <c r="UL11">
-        <v>420317</v>
+        <v>280507</v>
       </c>
     </row>
     <row r="12" spans="1:558">
@@ -8358,7 +8361,7 @@
         <v>11</v>
       </c>
       <c r="O12">
-        <v>420261</v>
+        <v>359260</v>
       </c>
       <c r="P12">
         <v>479088</v>
@@ -8367,22 +8370,22 @@
         <v>420246</v>
       </c>
       <c r="ET12">
-        <v>478858</v>
+        <v>2901722</v>
       </c>
       <c r="EW12">
         <v>378941</v>
       </c>
       <c r="FQ12">
-        <v>3900135</v>
+        <v>280381</v>
       </c>
       <c r="FR12">
-        <v>290377</v>
+        <v>319274</v>
       </c>
       <c r="HP12">
-        <v>280507</v>
+        <v>149463</v>
       </c>
       <c r="IN12">
-        <v>2901722</v>
+        <v>381342</v>
       </c>
       <c r="JX12">
         <v>381284</v>
@@ -8390,20 +8393,23 @@
       <c r="KC12">
         <v>319426</v>
       </c>
+      <c r="KH12">
+        <v>158832</v>
+      </c>
       <c r="MY12">
-        <v>290377</v>
+        <v>419117</v>
+      </c>
+      <c r="OR12">
+        <v>419206</v>
       </c>
       <c r="RI12">
-        <v>290400</v>
+        <v>419117</v>
       </c>
       <c r="SK12">
-        <v>478867</v>
+        <v>280792</v>
       </c>
       <c r="UG12">
-        <v>4400630</v>
-      </c>
-      <c r="UL12">
-        <v>319266</v>
+        <v>2901722</v>
       </c>
     </row>
     <row r="13" spans="1:558">
@@ -8411,43 +8417,49 @@
         <v>12</v>
       </c>
       <c r="O13">
-        <v>369295</v>
+        <v>420261</v>
       </c>
       <c r="P13">
         <v>379133</v>
       </c>
       <c r="ET13">
-        <v>290389</v>
+        <v>280375</v>
       </c>
       <c r="EW13">
         <v>478867</v>
       </c>
+      <c r="FQ13">
+        <v>420246</v>
+      </c>
       <c r="FR13">
-        <v>359260</v>
+        <v>290426</v>
       </c>
       <c r="HP13">
-        <v>2901722</v>
+        <v>369270</v>
       </c>
       <c r="IN13">
-        <v>479176</v>
+        <v>478865</v>
       </c>
       <c r="JX13">
         <v>369232</v>
       </c>
+      <c r="KH13">
+        <v>420317</v>
+      </c>
       <c r="MY13">
-        <v>290698</v>
+        <v>399213</v>
+      </c>
+      <c r="OR13">
+        <v>4700409</v>
       </c>
       <c r="RI13">
-        <v>478865</v>
+        <v>399213</v>
       </c>
       <c r="SK13">
-        <v>280792</v>
+        <v>3900135</v>
       </c>
       <c r="UG13">
-        <v>419001</v>
-      </c>
-      <c r="UL13">
-        <v>319426</v>
+        <v>381342</v>
       </c>
     </row>
     <row r="14" spans="1:558">
@@ -8455,43 +8467,40 @@
         <v>13</v>
       </c>
       <c r="O14">
-        <v>319252</v>
+        <v>369295</v>
       </c>
       <c r="P14">
         <v>399342</v>
       </c>
       <c r="ET14">
-        <v>419001</v>
+        <v>280792</v>
       </c>
       <c r="EW14">
         <v>280792</v>
       </c>
-      <c r="FR14">
-        <v>379146</v>
+      <c r="FQ14">
+        <v>419151</v>
       </c>
       <c r="HP14">
-        <v>280381</v>
+        <v>449277</v>
       </c>
       <c r="IN14">
-        <v>381342</v>
+        <v>419141</v>
       </c>
       <c r="JX14">
         <v>280507</v>
       </c>
       <c r="MY14">
-        <v>419117</v>
+        <v>359260</v>
+      </c>
+      <c r="OR14">
+        <v>3900135</v>
       </c>
       <c r="RI14">
-        <v>290426</v>
-      </c>
-      <c r="SK14">
-        <v>280381</v>
+        <v>359260</v>
       </c>
       <c r="UG14">
-        <v>381342</v>
-      </c>
-      <c r="UL14">
-        <v>290350</v>
+        <v>478918</v>
       </c>
     </row>
     <row r="15" spans="1:558">
@@ -8499,37 +8508,37 @@
         <v>14</v>
       </c>
       <c r="O15">
-        <v>290400</v>
+        <v>319252</v>
       </c>
       <c r="P15">
         <v>290390</v>
       </c>
       <c r="ET15">
-        <v>419127</v>
+        <v>280381</v>
       </c>
       <c r="EW15">
         <v>280381</v>
       </c>
-      <c r="FR15">
-        <v>369270</v>
+      <c r="FQ15">
+        <v>4700409</v>
       </c>
       <c r="HP15">
-        <v>419151</v>
+        <v>378941</v>
       </c>
       <c r="IN15">
-        <v>419141</v>
+        <v>478867</v>
       </c>
       <c r="JX15">
         <v>419127</v>
       </c>
       <c r="MY15">
-        <v>399213</v>
-      </c>
-      <c r="SK15">
-        <v>420246</v>
+        <v>149463</v>
+      </c>
+      <c r="RI15">
+        <v>149463</v>
       </c>
       <c r="UG15">
-        <v>478918</v>
+        <v>158832</v>
       </c>
     </row>
     <row r="16" spans="1:558">
@@ -8537,37 +8546,34 @@
         <v>15</v>
       </c>
       <c r="O16">
-        <v>479176</v>
+        <v>290400</v>
       </c>
       <c r="P16">
         <v>290377</v>
       </c>
       <c r="ET16">
-        <v>158832</v>
+        <v>319274</v>
       </c>
       <c r="EW16">
         <v>419151</v>
       </c>
-      <c r="FR16">
-        <v>479176</v>
-      </c>
       <c r="HP16">
-        <v>4700409</v>
+        <v>280381</v>
       </c>
       <c r="IN16">
-        <v>290413</v>
+        <v>319266</v>
       </c>
       <c r="JX16">
         <v>419206</v>
       </c>
       <c r="MY16">
-        <v>359260</v>
-      </c>
-      <c r="SK16">
-        <v>419151</v>
+        <v>379146</v>
+      </c>
+      <c r="RI16">
+        <v>379146</v>
       </c>
       <c r="UG16">
-        <v>158832</v>
+        <v>478867</v>
       </c>
     </row>
     <row r="17" spans="1:553">
@@ -8575,34 +8581,31 @@
         <v>16</v>
       </c>
       <c r="O17">
-        <v>478865</v>
+        <v>479176</v>
       </c>
       <c r="P17">
         <v>290698</v>
       </c>
       <c r="ET17">
-        <v>3900135</v>
+        <v>309334</v>
       </c>
       <c r="EW17">
         <v>4700409</v>
       </c>
-      <c r="FR17">
-        <v>319274</v>
-      </c>
       <c r="HP17">
-        <v>3900135</v>
-      </c>
-      <c r="IN17">
-        <v>378941</v>
+        <v>419151</v>
       </c>
       <c r="JX17">
         <v>478865</v>
       </c>
       <c r="MY17">
-        <v>379146</v>
+        <v>369270</v>
+      </c>
+      <c r="RI17">
+        <v>369270</v>
       </c>
       <c r="UG17">
-        <v>378941</v>
+        <v>280792</v>
       </c>
     </row>
     <row r="18" spans="1:553">
@@ -8610,22 +8613,28 @@
         <v>17</v>
       </c>
       <c r="O18">
-        <v>420317</v>
+        <v>478865</v>
       </c>
       <c r="P18">
-        <v>399331</v>
-      </c>
-      <c r="IN18">
-        <v>280375</v>
+        <v>399213</v>
+      </c>
+      <c r="ET18">
+        <v>420246</v>
+      </c>
+      <c r="HP18">
+        <v>4700409</v>
       </c>
       <c r="JX18">
         <v>419141</v>
       </c>
       <c r="MY18">
-        <v>369270</v>
+        <v>449277</v>
+      </c>
+      <c r="RI18">
+        <v>319252</v>
       </c>
       <c r="UG18">
-        <v>478867</v>
+        <v>3900135</v>
       </c>
     </row>
     <row r="19" spans="1:553">
@@ -8633,22 +8642,19 @@
         <v>18</v>
       </c>
       <c r="O19">
-        <v>319274</v>
+        <v>420317</v>
       </c>
       <c r="P19">
-        <v>399213</v>
-      </c>
-      <c r="IN19">
-        <v>280792</v>
+        <v>149463</v>
+      </c>
+      <c r="ET19">
+        <v>319426</v>
       </c>
       <c r="JX19">
         <v>319266</v>
       </c>
       <c r="MY19">
-        <v>449277</v>
-      </c>
-      <c r="UG19">
-        <v>280792</v>
+        <v>4400630</v>
       </c>
     </row>
     <row r="20" spans="1:553">
@@ -8656,19 +8662,16 @@
         <v>19</v>
       </c>
       <c r="O20">
-        <v>290426</v>
+        <v>319274</v>
       </c>
       <c r="P20">
-        <v>149463</v>
-      </c>
-      <c r="IN20">
-        <v>319274</v>
+        <v>379146</v>
       </c>
       <c r="JX20">
         <v>420246</v>
       </c>
       <c r="MY20">
-        <v>4400630</v>
+        <v>280356</v>
       </c>
     </row>
     <row r="21" spans="1:553">
@@ -8676,16 +8679,16 @@
         <v>20</v>
       </c>
       <c r="O21">
-        <v>309334</v>
+        <v>290426</v>
       </c>
       <c r="P21">
-        <v>379146</v>
+        <v>369270</v>
       </c>
       <c r="JX21">
         <v>319426</v>
       </c>
       <c r="MY21">
-        <v>280356</v>
+        <v>290396</v>
       </c>
     </row>
     <row r="22" spans="1:553">
@@ -8693,10 +8696,10 @@
         <v>21</v>
       </c>
       <c r="O22">
-        <v>290350</v>
+        <v>309334</v>
       </c>
       <c r="P22">
-        <v>369270</v>
+        <v>449277</v>
       </c>
       <c r="MY22">
         <v>290389</v>
@@ -8706,11 +8709,14 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="O23">
+        <v>290350</v>
+      </c>
       <c r="P23">
-        <v>449277</v>
+        <v>479049</v>
       </c>
       <c r="MY23">
-        <v>381284</v>
+        <v>379160</v>
       </c>
     </row>
     <row r="24" spans="1:553">
@@ -8718,10 +8724,10 @@
         <v>23</v>
       </c>
       <c r="P24">
-        <v>479049</v>
+        <v>4400630</v>
       </c>
       <c r="MY24">
-        <v>379160</v>
+        <v>280507</v>
       </c>
     </row>
     <row r="25" spans="1:553">
@@ -8729,10 +8735,10 @@
         <v>24</v>
       </c>
       <c r="P25">
-        <v>4400630</v>
+        <v>280356</v>
       </c>
       <c r="MY25">
-        <v>280507</v>
+        <v>419127</v>
       </c>
     </row>
     <row r="26" spans="1:553">
@@ -8740,10 +8746,10 @@
         <v>25</v>
       </c>
       <c r="P26">
-        <v>280356</v>
+        <v>478858</v>
       </c>
       <c r="MY26">
-        <v>419127</v>
+        <v>290400</v>
       </c>
     </row>
     <row r="27" spans="1:553">
@@ -8751,10 +8757,10 @@
         <v>26</v>
       </c>
       <c r="P27">
-        <v>478858</v>
+        <v>290396</v>
       </c>
       <c r="MY27">
-        <v>290400</v>
+        <v>2901722</v>
       </c>
     </row>
     <row r="28" spans="1:553">
@@ -8762,10 +8768,10 @@
         <v>27</v>
       </c>
       <c r="P28">
-        <v>290396</v>
+        <v>290389</v>
       </c>
       <c r="MY28">
-        <v>2901722</v>
+        <v>419206</v>
       </c>
     </row>
     <row r="29" spans="1:553">
@@ -8773,10 +8779,10 @@
         <v>28</v>
       </c>
       <c r="P29">
-        <v>290389</v>
+        <v>381284</v>
       </c>
       <c r="MY29">
-        <v>419206</v>
+        <v>158832</v>
       </c>
     </row>
     <row r="30" spans="1:553">
@@ -8784,10 +8790,10 @@
         <v>29</v>
       </c>
       <c r="P30">
-        <v>381284</v>
+        <v>419001</v>
       </c>
       <c r="MY30">
-        <v>478918</v>
+        <v>378941</v>
       </c>
     </row>
     <row r="31" spans="1:553">
@@ -8795,10 +8801,10 @@
         <v>30</v>
       </c>
       <c r="P31">
-        <v>419001</v>
+        <v>379160</v>
       </c>
       <c r="MY31">
-        <v>158832</v>
+        <v>478867</v>
       </c>
     </row>
     <row r="32" spans="1:553">
@@ -8806,10 +8812,10 @@
         <v>31</v>
       </c>
       <c r="P32">
-        <v>379160</v>
+        <v>369232</v>
       </c>
       <c r="MY32">
-        <v>378941</v>
+        <v>420317</v>
       </c>
     </row>
     <row r="33" spans="1:363">
@@ -8817,10 +8823,10 @@
         <v>32</v>
       </c>
       <c r="P33">
-        <v>369232</v>
+        <v>280507</v>
       </c>
       <c r="MY33">
-        <v>478867</v>
+        <v>280792</v>
       </c>
     </row>
     <row r="34" spans="1:363">
@@ -8828,10 +8834,10 @@
         <v>33</v>
       </c>
       <c r="P34">
-        <v>280507</v>
+        <v>419127</v>
       </c>
       <c r="MY34">
-        <v>420317</v>
+        <v>280381</v>
       </c>
     </row>
     <row r="35" spans="1:363">
@@ -8839,10 +8845,10 @@
         <v>34</v>
       </c>
       <c r="P35">
-        <v>419127</v>
+        <v>2901722</v>
       </c>
       <c r="MY35">
-        <v>280792</v>
+        <v>309334</v>
       </c>
     </row>
     <row r="36" spans="1:363">
@@ -8850,10 +8856,10 @@
         <v>35</v>
       </c>
       <c r="P36">
-        <v>2901722</v>
+        <v>381342</v>
       </c>
       <c r="MY36">
-        <v>309334</v>
+        <v>4700409</v>
       </c>
     </row>
     <row r="37" spans="1:363">
@@ -8861,10 +8867,7 @@
         <v>36</v>
       </c>
       <c r="P37">
-        <v>381342</v>
-      </c>
-      <c r="MY37">
-        <v>4700409</v>
+        <v>419206</v>
       </c>
     </row>
     <row r="38" spans="1:363">
@@ -8872,7 +8875,7 @@
         <v>37</v>
       </c>
       <c r="P38">
-        <v>419206</v>
+        <v>419141</v>
       </c>
     </row>
     <row r="39" spans="1:363">
@@ -8880,7 +8883,7 @@
         <v>38</v>
       </c>
       <c r="P39">
-        <v>419141</v>
+        <v>290413</v>
       </c>
     </row>
     <row r="40" spans="1:363">
@@ -8888,7 +8891,7 @@
         <v>39</v>
       </c>
       <c r="P40">
-        <v>290413</v>
+        <v>478918</v>
       </c>
     </row>
     <row r="41" spans="1:363">
@@ -8896,7 +8899,7 @@
         <v>40</v>
       </c>
       <c r="P41">
-        <v>478918</v>
+        <v>158832</v>
       </c>
     </row>
     <row r="42" spans="1:363">
@@ -8904,7 +8907,7 @@
         <v>41</v>
       </c>
       <c r="P42">
-        <v>158832</v>
+        <v>378941</v>
       </c>
     </row>
     <row r="43" spans="1:363">
@@ -8912,7 +8915,7 @@
         <v>42</v>
       </c>
       <c r="P43">
-        <v>378941</v>
+        <v>478867</v>
       </c>
     </row>
     <row r="44" spans="1:363">
@@ -8920,7 +8923,7 @@
         <v>43</v>
       </c>
       <c r="P44">
-        <v>478867</v>
+        <v>280375</v>
       </c>
     </row>
     <row r="45" spans="1:363">
@@ -8928,7 +8931,7 @@
         <v>44</v>
       </c>
       <c r="P45">
-        <v>280375</v>
+        <v>280792</v>
       </c>
     </row>
     <row r="46" spans="1:363">
@@ -8936,7 +8939,7 @@
         <v>45</v>
       </c>
       <c r="P46">
-        <v>280792</v>
+        <v>280381</v>
       </c>
     </row>
     <row r="47" spans="1:363">
@@ -8944,7 +8947,7 @@
         <v>46</v>
       </c>
       <c r="P47">
-        <v>280381</v>
+        <v>420246</v>
       </c>
     </row>
     <row r="48" spans="1:363">
@@ -8952,7 +8955,7 @@
         <v>47</v>
       </c>
       <c r="P48">
-        <v>420246</v>
+        <v>419151</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -8960,7 +8963,7 @@
         <v>48</v>
       </c>
       <c r="P49">
-        <v>419151</v>
+        <v>4700409</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -8968,14 +8971,6 @@
         <v>49</v>
       </c>
       <c r="P50">
-        <v>4700409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="P51">
         <v>3900135</v>
       </c>
     </row>
